--- a/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7633795723505524</v>
+        <v>0.763379572350552</v>
       </c>
       <c r="D2">
-        <v>0.7758142021742085</v>
+        <v>0.7758142021742079</v>
       </c>
       <c r="E2">
-        <v>0.7974388326779331</v>
+        <v>0.7974388326779327</v>
       </c>
       <c r="F2">
-        <v>0.7627710213733099</v>
+        <v>0.7627710213733095</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.008253488083497</v>
+        <v>1.008253488083498</v>
       </c>
       <c r="J2">
-        <v>0.795996789904897</v>
+        <v>0.7959967899048964</v>
       </c>
       <c r="K2">
-        <v>0.7916302830678228</v>
+        <v>0.7916302830678223</v>
       </c>
       <c r="L2">
-        <v>0.8126903343737624</v>
+        <v>0.8126903343737619</v>
       </c>
       <c r="M2">
-        <v>0.7789488326471072</v>
+        <v>0.7789488326471066</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.830486509672984</v>
+        <v>0.8304865096729825</v>
       </c>
       <c r="D3">
-        <v>0.8404422168137183</v>
+        <v>0.8404422168137168</v>
       </c>
       <c r="E3">
-        <v>0.8560058381933416</v>
+        <v>0.8560058381933405</v>
       </c>
       <c r="F3">
-        <v>0.8309541864815883</v>
+        <v>0.8309541864815867</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.019369924406683</v>
       </c>
       <c r="J3">
-        <v>0.8569750588153121</v>
+        <v>0.8569750588153106</v>
       </c>
       <c r="K3">
-        <v>0.8536260678675945</v>
+        <v>0.8536260678675928</v>
       </c>
       <c r="L3">
-        <v>0.8688861217866932</v>
+        <v>0.8688861217866919</v>
       </c>
       <c r="M3">
-        <v>0.8443304657093388</v>
+        <v>0.8443304657093372</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8603086556451738</v>
+        <v>0.8603086556451804</v>
       </c>
       <c r="D4">
-        <v>0.8692437772864456</v>
+        <v>0.8692437772864523</v>
       </c>
       <c r="E4">
-        <v>0.8821361218584183</v>
+        <v>0.8821361218584243</v>
       </c>
       <c r="F4">
-        <v>0.8612836914846012</v>
+        <v>0.8612836914846078</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.024395009426767</v>
+        <v>1.024395009426768</v>
       </c>
       <c r="J4">
-        <v>0.8841141218753109</v>
+        <v>0.8841141218753173</v>
       </c>
       <c r="K4">
-        <v>0.8812266873218981</v>
+        <v>0.8812266873219047</v>
       </c>
       <c r="L4">
-        <v>0.8939012852978591</v>
+        <v>0.8939012852978649</v>
       </c>
       <c r="M4">
-        <v>0.8734052641813823</v>
+        <v>0.873405264181389</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8712570587594076</v>
+        <v>0.871257058759412</v>
       </c>
       <c r="D5">
-        <v>0.8798277297242004</v>
+        <v>0.8798277297242049</v>
       </c>
       <c r="E5">
-        <v>0.8917421645643434</v>
+        <v>0.8917421645643475</v>
       </c>
       <c r="F5">
-        <v>0.8724253138649094</v>
+        <v>0.8724253138649137</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026244235214844</v>
+        <v>1.026244235214845</v>
       </c>
       <c r="J5">
-        <v>0.8940789925734857</v>
+        <v>0.8940789925734898</v>
       </c>
       <c r="K5">
-        <v>0.8913630605520502</v>
+        <v>0.8913630605520547</v>
       </c>
       <c r="L5">
-        <v>0.9030871999255045</v>
+        <v>0.9030871999255085</v>
       </c>
       <c r="M5">
-        <v>0.8840822453706947</v>
+        <v>0.8840822453706991</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8730226566618429</v>
+        <v>0.873022656661838</v>
       </c>
       <c r="D6">
-        <v>0.8815350283254936</v>
+        <v>0.8815350283254888</v>
       </c>
       <c r="E6">
-        <v>0.8932918884197234</v>
+        <v>0.893291888419719</v>
       </c>
       <c r="F6">
-        <v>0.8742224745287679</v>
+        <v>0.8742224745287631</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.0265424708961</v>
       </c>
       <c r="J6">
-        <v>0.8956859584229478</v>
+        <v>0.8956859584229435</v>
       </c>
       <c r="K6">
-        <v>0.892997801078286</v>
+        <v>0.8929978010782814</v>
       </c>
       <c r="L6">
-        <v>0.9045685989430442</v>
+        <v>0.9045685989430398</v>
       </c>
       <c r="M6">
-        <v>0.8858042210869097</v>
+        <v>0.885804221086905</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8604601807910063</v>
+        <v>0.8604601807910085</v>
       </c>
       <c r="D7">
-        <v>0.8693902230681667</v>
+        <v>0.8693902230681689</v>
       </c>
       <c r="E7">
-        <v>0.88226902385388</v>
+        <v>0.8822690238538823</v>
       </c>
       <c r="F7">
-        <v>0.8614378625749123</v>
+        <v>0.8614378625749149</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.024420596603911</v>
       </c>
       <c r="J7">
-        <v>0.8842520345022187</v>
+        <v>0.884252034502221</v>
       </c>
       <c r="K7">
-        <v>0.8813669653000347</v>
+        <v>0.8813669653000368</v>
       </c>
       <c r="L7">
-        <v>0.8940284137390189</v>
+        <v>0.8940284137390212</v>
       </c>
       <c r="M7">
-        <v>0.8735530220470312</v>
+        <v>0.873553022047034</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D8">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E8">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F8">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J8">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K8">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L8">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M8">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D9">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E9">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F9">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J9">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K9">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L9">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M9">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D10">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E10">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F10">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J10">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K10">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L10">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M10">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D11">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E11">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F11">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J11">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K11">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L11">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M11">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D12">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E12">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F12">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J12">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K12">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L12">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M12">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D13">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E13">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F13">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J13">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K13">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L13">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M13">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D14">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E14">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F14">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J14">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K14">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L14">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M14">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D15">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E15">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F15">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J15">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K15">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L15">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M15">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D16">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E16">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F16">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J16">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K16">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L16">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M16">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D17">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E17">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F17">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J17">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K17">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L17">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M17">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D18">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E18">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F18">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J18">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K18">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L18">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M18">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D19">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E19">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F19">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J19">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K19">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L19">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M19">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D20">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E20">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F20">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J20">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K20">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L20">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M20">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D21">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E21">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F21">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J21">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K21">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L21">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M21">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D22">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E22">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F22">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J22">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K22">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L22">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M22">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D23">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E23">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F23">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J23">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K23">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L23">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M23">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D24">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E24">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F24">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J24">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K24">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L24">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M24">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7908789772441688</v>
+        <v>0.7908789772441731</v>
       </c>
       <c r="D25">
-        <v>0.80226332765727</v>
+        <v>0.8022633276572745</v>
       </c>
       <c r="E25">
-        <v>0.8213947611360592</v>
+        <v>0.8213947611360635</v>
       </c>
       <c r="F25">
-        <v>0.7907041892604358</v>
+        <v>0.7907041892604404</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.01276451392095</v>
+        <v>1.012764513920951</v>
       </c>
       <c r="J25">
-        <v>0.8209620643774953</v>
+        <v>0.8209620643774995</v>
       </c>
       <c r="K25">
-        <v>0.8170098482116883</v>
+        <v>0.8170098482116928</v>
       </c>
       <c r="L25">
-        <v>0.8356960833249819</v>
+        <v>0.8356960833249859</v>
       </c>
       <c r="M25">
-        <v>0.8057337889222377</v>
+        <v>0.8057337889222421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.763379572350552</v>
+        <v>0.7633795723505524</v>
       </c>
       <c r="D2">
-        <v>0.7758142021742079</v>
+        <v>0.7758142021742085</v>
       </c>
       <c r="E2">
-        <v>0.7974388326779327</v>
+        <v>0.7974388326779331</v>
       </c>
       <c r="F2">
-        <v>0.7627710213733095</v>
+        <v>0.7627710213733099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.008253488083498</v>
+        <v>1.008253488083497</v>
       </c>
       <c r="J2">
-        <v>0.7959967899048964</v>
+        <v>0.795996789904897</v>
       </c>
       <c r="K2">
-        <v>0.7916302830678223</v>
+        <v>0.7916302830678228</v>
       </c>
       <c r="L2">
-        <v>0.8126903343737619</v>
+        <v>0.8126903343737624</v>
       </c>
       <c r="M2">
-        <v>0.7789488326471066</v>
+        <v>0.7789488326471072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8304865096729825</v>
+        <v>0.830486509672984</v>
       </c>
       <c r="D3">
-        <v>0.8404422168137168</v>
+        <v>0.8404422168137183</v>
       </c>
       <c r="E3">
-        <v>0.8560058381933405</v>
+        <v>0.8560058381933416</v>
       </c>
       <c r="F3">
-        <v>0.8309541864815867</v>
+        <v>0.8309541864815883</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.019369924406683</v>
       </c>
       <c r="J3">
-        <v>0.8569750588153106</v>
+        <v>0.8569750588153121</v>
       </c>
       <c r="K3">
-        <v>0.8536260678675928</v>
+        <v>0.8536260678675945</v>
       </c>
       <c r="L3">
-        <v>0.8688861217866919</v>
+        <v>0.8688861217866932</v>
       </c>
       <c r="M3">
-        <v>0.8443304657093372</v>
+        <v>0.8443304657093388</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8603086556451804</v>
+        <v>0.8603086556451738</v>
       </c>
       <c r="D4">
-        <v>0.8692437772864523</v>
+        <v>0.8692437772864456</v>
       </c>
       <c r="E4">
-        <v>0.8821361218584243</v>
+        <v>0.8821361218584183</v>
       </c>
       <c r="F4">
-        <v>0.8612836914846078</v>
+        <v>0.8612836914846012</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.024395009426768</v>
+        <v>1.024395009426767</v>
       </c>
       <c r="J4">
-        <v>0.8841141218753173</v>
+        <v>0.8841141218753109</v>
       </c>
       <c r="K4">
-        <v>0.8812266873219047</v>
+        <v>0.8812266873218981</v>
       </c>
       <c r="L4">
-        <v>0.8939012852978649</v>
+        <v>0.8939012852978591</v>
       </c>
       <c r="M4">
-        <v>0.873405264181389</v>
+        <v>0.8734052641813823</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.871257058759412</v>
+        <v>0.8712570587594076</v>
       </c>
       <c r="D5">
-        <v>0.8798277297242049</v>
+        <v>0.8798277297242004</v>
       </c>
       <c r="E5">
-        <v>0.8917421645643475</v>
+        <v>0.8917421645643434</v>
       </c>
       <c r="F5">
-        <v>0.8724253138649137</v>
+        <v>0.8724253138649094</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026244235214845</v>
+        <v>1.026244235214844</v>
       </c>
       <c r="J5">
-        <v>0.8940789925734898</v>
+        <v>0.8940789925734857</v>
       </c>
       <c r="K5">
-        <v>0.8913630605520547</v>
+        <v>0.8913630605520502</v>
       </c>
       <c r="L5">
-        <v>0.9030871999255085</v>
+        <v>0.9030871999255045</v>
       </c>
       <c r="M5">
-        <v>0.8840822453706991</v>
+        <v>0.8840822453706947</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.873022656661838</v>
+        <v>0.8730226566618429</v>
       </c>
       <c r="D6">
-        <v>0.8815350283254888</v>
+        <v>0.8815350283254936</v>
       </c>
       <c r="E6">
-        <v>0.893291888419719</v>
+        <v>0.8932918884197234</v>
       </c>
       <c r="F6">
-        <v>0.8742224745287631</v>
+        <v>0.8742224745287679</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.0265424708961</v>
       </c>
       <c r="J6">
-        <v>0.8956859584229435</v>
+        <v>0.8956859584229478</v>
       </c>
       <c r="K6">
-        <v>0.8929978010782814</v>
+        <v>0.892997801078286</v>
       </c>
       <c r="L6">
-        <v>0.9045685989430398</v>
+        <v>0.9045685989430442</v>
       </c>
       <c r="M6">
-        <v>0.885804221086905</v>
+        <v>0.8858042210869097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8604601807910085</v>
+        <v>0.8604601807910063</v>
       </c>
       <c r="D7">
-        <v>0.8693902230681689</v>
+        <v>0.8693902230681667</v>
       </c>
       <c r="E7">
-        <v>0.8822690238538823</v>
+        <v>0.88226902385388</v>
       </c>
       <c r="F7">
-        <v>0.8614378625749149</v>
+        <v>0.8614378625749123</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.024420596603911</v>
       </c>
       <c r="J7">
-        <v>0.884252034502221</v>
+        <v>0.8842520345022187</v>
       </c>
       <c r="K7">
-        <v>0.8813669653000368</v>
+        <v>0.8813669653000347</v>
       </c>
       <c r="L7">
-        <v>0.8940284137390212</v>
+        <v>0.8940284137390189</v>
       </c>
       <c r="M7">
-        <v>0.873553022047034</v>
+        <v>0.8735530220470312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D8">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E8">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F8">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J8">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K8">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L8">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M8">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D9">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E9">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F9">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J9">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K9">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L9">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M9">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D10">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E10">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F10">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J10">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K10">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L10">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M10">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D11">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E11">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F11">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J11">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K11">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L11">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M11">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D12">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E12">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F12">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J12">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K12">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L12">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M12">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D13">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E13">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F13">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J13">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K13">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L13">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M13">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D14">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E14">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F14">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J14">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K14">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L14">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M14">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D15">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E15">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F15">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J15">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K15">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L15">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M15">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D16">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E16">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F16">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J16">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K16">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L16">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M16">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D17">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E17">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F17">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J17">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K17">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L17">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M17">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D18">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E18">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F18">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J18">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K18">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L18">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M18">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D19">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E19">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F19">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J19">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K19">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L19">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M19">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D20">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E20">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F20">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J20">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K20">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L20">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M20">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D21">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E21">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F21">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J21">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K21">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L21">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M21">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D22">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E22">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F22">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J22">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K22">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L22">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M22">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D23">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E23">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F23">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J23">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K23">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L23">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M23">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D24">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E24">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F24">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J24">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K24">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L24">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M24">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7908789772441731</v>
+        <v>0.7908789772441688</v>
       </c>
       <c r="D25">
-        <v>0.8022633276572745</v>
+        <v>0.80226332765727</v>
       </c>
       <c r="E25">
-        <v>0.8213947611360635</v>
+        <v>0.8213947611360592</v>
       </c>
       <c r="F25">
-        <v>0.7907041892604404</v>
+        <v>0.7907041892604358</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.012764513920951</v>
+        <v>1.01276451392095</v>
       </c>
       <c r="J25">
-        <v>0.8209620643774995</v>
+        <v>0.8209620643774953</v>
       </c>
       <c r="K25">
-        <v>0.8170098482116928</v>
+        <v>0.8170098482116883</v>
       </c>
       <c r="L25">
-        <v>0.8356960833249859</v>
+        <v>0.8356960833249819</v>
       </c>
       <c r="M25">
-        <v>0.8057337889222421</v>
+        <v>0.8057337889222377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7633795723505524</v>
+        <v>0.7732236963755343</v>
       </c>
       <c r="D2">
-        <v>0.7758142021742085</v>
+        <v>0.7853927087994453</v>
       </c>
       <c r="E2">
-        <v>0.7974388326779331</v>
+        <v>0.8059843647540469</v>
       </c>
       <c r="F2">
-        <v>0.7627710213733099</v>
+        <v>0.7725540917746838</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.008253488083497</v>
+        <v>1.00971559338956</v>
       </c>
       <c r="J2">
-        <v>0.795996789904897</v>
+        <v>0.8052161413151259</v>
       </c>
       <c r="K2">
-        <v>0.7916302830678228</v>
+        <v>0.8009535116676353</v>
       </c>
       <c r="L2">
-        <v>0.8126903343737624</v>
+        <v>0.8210239856868865</v>
       </c>
       <c r="M2">
-        <v>0.7789488326471072</v>
+        <v>0.7884590265457344</v>
+      </c>
+      <c r="N2">
+        <v>0.8063596405953757</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.830486509672984</v>
+        <v>0.837482460228605</v>
       </c>
       <c r="D3">
-        <v>0.8404422168137183</v>
+        <v>0.8473148114730056</v>
       </c>
       <c r="E3">
-        <v>0.8560058381933416</v>
+        <v>0.8621039865433755</v>
       </c>
       <c r="F3">
-        <v>0.8309541864815883</v>
+        <v>0.8378330148627967</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.019369924406683</v>
+        <v>1.020398619525254</v>
       </c>
       <c r="J3">
-        <v>0.8569750588153121</v>
+        <v>0.8636541490927867</v>
       </c>
       <c r="K3">
-        <v>0.8536260678675945</v>
+        <v>0.8603628090112023</v>
       </c>
       <c r="L3">
-        <v>0.8688861217866932</v>
+        <v>0.8748692266915279</v>
       </c>
       <c r="M3">
-        <v>0.8443304657093388</v>
+        <v>0.8510692115976274</v>
+      </c>
+      <c r="N3">
+        <v>0.864880637047014</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8603086556451738</v>
+        <v>0.8666815614673514</v>
       </c>
       <c r="D4">
-        <v>0.8692437772864456</v>
+        <v>0.8755258566453219</v>
       </c>
       <c r="E4">
-        <v>0.8821361218584183</v>
+        <v>0.8876987253219343</v>
       </c>
       <c r="F4">
-        <v>0.8612836914846012</v>
+        <v>0.8675246056798538</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.024395009426767</v>
+        <v>1.025327097263497</v>
       </c>
       <c r="J4">
-        <v>0.8841141218753109</v>
+        <v>0.8902424535407139</v>
       </c>
       <c r="K4">
-        <v>0.8812266873218981</v>
+        <v>0.8874016312950204</v>
       </c>
       <c r="L4">
-        <v>0.8939012852978591</v>
+        <v>0.8993724485416871</v>
       </c>
       <c r="M4">
-        <v>0.8734052641813823</v>
+        <v>0.8795371845220814</v>
+      </c>
+      <c r="N4">
+        <v>0.8915066999369783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8712570587594076</v>
+        <v>0.8774509759774854</v>
       </c>
       <c r="D5">
-        <v>0.8798277297242004</v>
+        <v>0.8859404188861484</v>
       </c>
       <c r="E5">
-        <v>0.8917421645643434</v>
+        <v>0.8971509456987293</v>
       </c>
       <c r="F5">
-        <v>0.8724253138649094</v>
+        <v>0.878482514518161</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026244235214844</v>
+        <v>1.027148335505825</v>
       </c>
       <c r="J5">
-        <v>0.8940789925734857</v>
+        <v>0.9000499442074876</v>
       </c>
       <c r="K5">
-        <v>0.8913630605520502</v>
+        <v>0.89737729927484</v>
       </c>
       <c r="L5">
-        <v>0.9030871999255045</v>
+        <v>0.9084117234186275</v>
       </c>
       <c r="M5">
-        <v>0.8840822453706947</v>
+        <v>0.8900397476141276</v>
+      </c>
+      <c r="N5">
+        <v>0.9013281183654338</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8730226566618429</v>
+        <v>0.879189723192128</v>
       </c>
       <c r="D6">
-        <v>0.8815350283254936</v>
+        <v>0.8876223203895016</v>
       </c>
       <c r="E6">
-        <v>0.8932918884197234</v>
+        <v>0.8986775968083798</v>
       </c>
       <c r="F6">
-        <v>0.8742224745287679</v>
+        <v>0.8802520913615939</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0265424708961</v>
+        <v>1.02744236181067</v>
       </c>
       <c r="J6">
-        <v>0.8956859584229478</v>
+        <v>0.9016333459634226</v>
       </c>
       <c r="K6">
-        <v>0.892997801078286</v>
+        <v>0.8989879687052827</v>
       </c>
       <c r="L6">
-        <v>0.9045685989430442</v>
+        <v>0.9098711484889139</v>
       </c>
       <c r="M6">
-        <v>0.8858042210869097</v>
+        <v>0.8917355537156543</v>
+      </c>
+      <c r="N6">
+        <v>0.9029137687334808</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8604601807910063</v>
+        <v>0.8668304537001795</v>
       </c>
       <c r="D7">
-        <v>0.8693902230681667</v>
+        <v>0.875669809660241</v>
       </c>
       <c r="E7">
-        <v>0.88226902385388</v>
+        <v>0.8878293644196118</v>
       </c>
       <c r="F7">
-        <v>0.8614378625749123</v>
+        <v>0.8676760762142846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.024420596603911</v>
+        <v>1.025352273616388</v>
       </c>
       <c r="J7">
-        <v>0.8842520345022187</v>
+        <v>0.8903780476687554</v>
       </c>
       <c r="K7">
-        <v>0.8813669653000347</v>
+        <v>0.8875395424876349</v>
       </c>
       <c r="L7">
-        <v>0.8940284137390189</v>
+        <v>0.899497418105039</v>
       </c>
       <c r="M7">
-        <v>0.8735530220470312</v>
+        <v>0.8796823770606333</v>
+      </c>
+      <c r="N7">
+        <v>0.8916424866242346</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D8">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E8">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F8">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J8">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K8">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L8">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M8">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N8">
+        <v>0.8299889503146581</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D9">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E9">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F9">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J9">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K9">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L9">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M9">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N9">
+        <v>0.8299889503146581</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D10">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E10">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F10">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J10">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K10">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L10">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M10">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N10">
+        <v>0.8299889503146581</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D11">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E11">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F11">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J11">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K11">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L11">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M11">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N11">
+        <v>0.8299889503146581</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D12">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E12">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F12">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J12">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K12">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L12">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M12">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N12">
+        <v>0.8299889503146581</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D13">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E13">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F13">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J13">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K13">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L13">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M13">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N13">
+        <v>0.8299889503146581</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D14">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E14">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F14">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J14">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K14">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L14">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M14">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N14">
+        <v>0.8299889503146581</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D15">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E15">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F15">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J15">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K15">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L15">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M15">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N15">
+        <v>0.8299889503146581</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D16">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E16">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F16">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J16">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K16">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L16">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M16">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N16">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D17">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E17">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F17">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J17">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K17">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L17">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M17">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N17">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D18">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E18">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F18">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J18">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K18">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L18">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M18">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N18">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D19">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E19">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F19">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J19">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K19">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L19">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M19">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N19">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D20">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E20">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F20">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J20">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K20">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L20">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M20">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N20">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D21">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E21">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F21">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J21">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K21">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L21">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M21">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N21">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D22">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E22">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F22">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J22">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K22">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L22">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M22">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N22">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D23">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E23">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F23">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J23">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K23">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L23">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M23">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N23">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D24">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E24">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F24">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J24">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K24">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L24">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M24">
-        <v>0.8057337889222377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N24">
+        <v>0.8299889503146581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7908789772441688</v>
+        <v>0.7991905945940296</v>
       </c>
       <c r="D25">
-        <v>0.80226332765727</v>
+        <v>0.8103851557881849</v>
       </c>
       <c r="E25">
-        <v>0.8213947611360592</v>
+        <v>0.8286236766874169</v>
       </c>
       <c r="F25">
-        <v>0.7907041892604358</v>
+        <v>0.7989259550619235</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.01276451392095</v>
+        <v>1.013994536187963</v>
       </c>
       <c r="J25">
-        <v>0.8209620643774953</v>
+        <v>0.8288119422905469</v>
       </c>
       <c r="K25">
-        <v>0.8170098482116883</v>
+        <v>0.8249392395304607</v>
       </c>
       <c r="L25">
-        <v>0.8356960833249819</v>
+        <v>0.8427638917626773</v>
       </c>
       <c r="M25">
-        <v>0.8057337889222377</v>
+        <v>0.8137530759174257</v>
+      </c>
+      <c r="N25">
+        <v>0.8299889503146581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.006528296142668</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.014838668285348</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.020479461550701</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.027679297654225</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.051392794103019</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.028515484976171</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.026095076305612</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.031660671449212</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.038766027556054</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.029976094937219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.011546710757509</v>
+      </c>
+      <c r="D3">
+        <v>1.019220370075336</v>
+      </c>
+      <c r="E3">
+        <v>1.024724035301816</v>
+      </c>
+      <c r="F3">
+        <v>1.032375502584922</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.052835009426807</v>
+      </c>
+      <c r="J3">
+        <v>1.031727474710838</v>
+      </c>
+      <c r="K3">
+        <v>1.029613090217401</v>
+      </c>
+      <c r="L3">
+        <v>1.035050046673086</v>
+      </c>
+      <c r="M3">
+        <v>1.042610236240691</v>
+      </c>
+      <c r="N3">
+        <v>1.033192646065723</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.014720640489401</v>
+      </c>
+      <c r="D4">
+        <v>1.021996319533248</v>
+      </c>
+      <c r="E4">
+        <v>1.027414353006352</v>
+      </c>
+      <c r="F4">
+        <v>1.035351294791305</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.053731316506086</v>
+      </c>
+      <c r="J4">
+        <v>1.033755142053446</v>
+      </c>
+      <c r="K4">
+        <v>1.031836323392936</v>
+      </c>
+      <c r="L4">
+        <v>1.037192797506824</v>
+      </c>
+      <c r="M4">
+        <v>1.04504099095502</v>
+      </c>
+      <c r="N4">
+        <v>1.035223192928534</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.016038084544213</v>
+      </c>
+      <c r="D5">
+        <v>1.023149656055568</v>
+      </c>
+      <c r="E5">
+        <v>1.028532403972605</v>
+      </c>
+      <c r="F5">
+        <v>1.036587804831312</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.054099502166071</v>
+      </c>
+      <c r="J5">
+        <v>1.034595844807283</v>
+      </c>
+      <c r="K5">
+        <v>1.032758685214515</v>
+      </c>
+      <c r="L5">
+        <v>1.038081962027862</v>
+      </c>
+      <c r="M5">
+        <v>1.046049777739994</v>
+      </c>
+      <c r="N5">
+        <v>1.036065089576711</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.016258318555915</v>
+      </c>
+      <c r="D6">
+        <v>1.02334251929432</v>
+      </c>
+      <c r="E6">
+        <v>1.028719383702121</v>
+      </c>
+      <c r="F6">
+        <v>1.036794585009666</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.054160822524439</v>
+      </c>
+      <c r="J6">
+        <v>1.034736326230811</v>
+      </c>
+      <c r="K6">
+        <v>1.03291284575478</v>
+      </c>
+      <c r="L6">
+        <v>1.03823058535673</v>
+      </c>
+      <c r="M6">
+        <v>1.046218402408778</v>
+      </c>
+      <c r="N6">
+        <v>1.036205770499973</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.014738309684103</v>
+      </c>
+      <c r="D7">
+        <v>1.022011783522003</v>
+      </c>
+      <c r="E7">
+        <v>1.027429342737826</v>
+      </c>
+      <c r="F7">
+        <v>1.035367873404109</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.05373626982563</v>
+      </c>
+      <c r="J7">
+        <v>1.033766421123397</v>
+      </c>
+      <c r="K7">
+        <v>1.031848695744283</v>
+      </c>
+      <c r="L7">
+        <v>1.037204723797783</v>
+      </c>
+      <c r="M7">
+        <v>1.045054521289845</v>
+      </c>
+      <c r="N7">
+        <v>1.035234488016058</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.008239894236627</v>
+      </c>
+      <c r="D8">
+        <v>1.016332089747031</v>
+      </c>
+      <c r="E8">
+        <v>1.021925880852207</v>
+      </c>
+      <c r="F8">
+        <v>1.02927978757217</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.051887970573718</v>
+      </c>
+      <c r="J8">
+        <v>1.029611745125121</v>
+      </c>
+      <c r="K8">
+        <v>1.027295285244534</v>
+      </c>
+      <c r="L8">
+        <v>1.032816822002455</v>
+      </c>
+      <c r="M8">
+        <v>1.040077230257461</v>
+      </c>
+      <c r="N8">
+        <v>1.031073911901316</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9961948099298079</v>
+      </c>
+      <c r="D9">
+        <v>1.005844390044442</v>
+      </c>
+      <c r="E9">
+        <v>1.011773810765527</v>
+      </c>
+      <c r="F9">
+        <v>1.018042673367233</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.048338165855391</v>
+      </c>
+      <c r="J9">
+        <v>1.021882658560282</v>
+      </c>
+      <c r="K9">
+        <v>1.018843352451622</v>
+      </c>
+      <c r="L9">
+        <v>1.024678711207481</v>
+      </c>
+      <c r="M9">
+        <v>1.030849649414117</v>
+      </c>
+      <c r="N9">
+        <v>1.023333849147017</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9877164259550296</v>
+      </c>
+      <c r="D10">
+        <v>0.9984925374395347</v>
+      </c>
+      <c r="E10">
+        <v>1.004664624623473</v>
+      </c>
+      <c r="F10">
+        <v>1.010168606028955</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.04575929634981</v>
+      </c>
+      <c r="J10">
+        <v>1.016426022203509</v>
+      </c>
+      <c r="K10">
+        <v>1.012889063034762</v>
+      </c>
+      <c r="L10">
+        <v>1.018950165502972</v>
+      </c>
+      <c r="M10">
+        <v>1.024356658642363</v>
+      </c>
+      <c r="N10">
+        <v>1.017869463740733</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.983926815097674</v>
+      </c>
+      <c r="D11">
+        <v>0.9952144449650409</v>
+      </c>
+      <c r="E11">
+        <v>1.001496603765105</v>
+      </c>
+      <c r="F11">
+        <v>1.006658397193334</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.044588456994089</v>
+      </c>
+      <c r="J11">
+        <v>1.013983889157685</v>
+      </c>
+      <c r="K11">
+        <v>1.010227177682305</v>
+      </c>
+      <c r="L11">
+        <v>1.016390351413381</v>
+      </c>
+      <c r="M11">
+        <v>1.021455828891512</v>
+      </c>
+      <c r="N11">
+        <v>1.015423862585866</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9825002708198898</v>
+      </c>
+      <c r="D12">
+        <v>0.9939817275428426</v>
+      </c>
+      <c r="E12">
+        <v>1.000305570143599</v>
+      </c>
+      <c r="F12">
+        <v>1.005338502592333</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.044145062068128</v>
+      </c>
+      <c r="J12">
+        <v>1.013064170433325</v>
+      </c>
+      <c r="K12">
+        <v>1.009225143628653</v>
+      </c>
+      <c r="L12">
+        <v>1.015426918252413</v>
+      </c>
+      <c r="M12">
+        <v>1.020364135059215</v>
+      </c>
+      <c r="N12">
+        <v>1.014502837755425</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9828071443711427</v>
+      </c>
+      <c r="D13">
+        <v>0.9942468469640809</v>
+      </c>
+      <c r="E13">
+        <v>1.000561711309421</v>
+      </c>
+      <c r="F13">
+        <v>1.005622366187966</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.044240562117944</v>
+      </c>
+      <c r="J13">
+        <v>1.013262034945053</v>
+      </c>
+      <c r="K13">
+        <v>1.009440697084694</v>
+      </c>
+      <c r="L13">
+        <v>1.0156341599541</v>
+      </c>
+      <c r="M13">
+        <v>1.02059896266947</v>
+      </c>
+      <c r="N13">
+        <v>1.014700983257455</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9838092891693477</v>
+      </c>
+      <c r="D14">
+        <v>0.9951128611725729</v>
+      </c>
+      <c r="E14">
+        <v>1.001398448992133</v>
+      </c>
+      <c r="F14">
+        <v>1.006549627220586</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.044551981237288</v>
+      </c>
+      <c r="J14">
+        <v>1.013908126099952</v>
+      </c>
+      <c r="K14">
+        <v>1.010144624775194</v>
+      </c>
+      <c r="L14">
+        <v>1.016310975022719</v>
+      </c>
+      <c r="M14">
+        <v>1.021365883454848</v>
+      </c>
+      <c r="N14">
+        <v>1.015347991935902</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9844242021829941</v>
+      </c>
+      <c r="D15">
+        <v>0.995644414881928</v>
+      </c>
+      <c r="E15">
+        <v>1.001912071751465</v>
+      </c>
+      <c r="F15">
+        <v>1.007118788247435</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.044742720339988</v>
+      </c>
+      <c r="J15">
+        <v>1.014304513162261</v>
+      </c>
+      <c r="K15">
+        <v>1.010576553944545</v>
+      </c>
+      <c r="L15">
+        <v>1.016726291436414</v>
+      </c>
+      <c r="M15">
+        <v>1.021836503203602</v>
+      </c>
+      <c r="N15">
+        <v>1.015744941913305</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9879653412553172</v>
+      </c>
+      <c r="D16">
+        <v>0.9987080265965083</v>
+      </c>
+      <c r="E16">
+        <v>1.004872917922638</v>
+      </c>
+      <c r="F16">
+        <v>1.010399368821026</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.045835830159417</v>
+      </c>
+      <c r="J16">
+        <v>1.016586369675085</v>
+      </c>
+      <c r="K16">
+        <v>1.013063900803653</v>
+      </c>
+      <c r="L16">
+        <v>1.019118323353429</v>
+      </c>
+      <c r="M16">
+        <v>1.024547230325949</v>
+      </c>
+      <c r="N16">
+        <v>1.01803003892411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9901541363956865</v>
+      </c>
+      <c r="D17">
+        <v>1.000603810434815</v>
+      </c>
+      <c r="E17">
+        <v>1.006705609518216</v>
+      </c>
+      <c r="F17">
+        <v>1.012429606933703</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.046506764344801</v>
+      </c>
+      <c r="J17">
+        <v>1.01799600633423</v>
+      </c>
+      <c r="K17">
+        <v>1.014601260943512</v>
+      </c>
+      <c r="L17">
+        <v>1.020597077847606</v>
+      </c>
+      <c r="M17">
+        <v>1.026223154342714</v>
+      </c>
+      <c r="N17">
+        <v>1.019441677428998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9914194788778045</v>
+      </c>
+      <c r="D18">
+        <v>1.001700514380921</v>
+      </c>
+      <c r="E18">
+        <v>1.007765991370303</v>
+      </c>
+      <c r="F18">
+        <v>1.013604161617754</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.046892907505803</v>
+      </c>
+      <c r="J18">
+        <v>1.018810613647975</v>
+      </c>
+      <c r="K18">
+        <v>1.015489959149748</v>
+      </c>
+      <c r="L18">
+        <v>1.021452006746986</v>
+      </c>
+      <c r="M18">
+        <v>1.027192129830083</v>
+      </c>
+      <c r="N18">
+        <v>1.020257441578566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9918490363458135</v>
+      </c>
+      <c r="D19">
+        <v>1.0020729479207</v>
+      </c>
+      <c r="E19">
+        <v>1.008126119800242</v>
+      </c>
+      <c r="F19">
+        <v>1.014003044558809</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.047023700398545</v>
+      </c>
+      <c r="J19">
+        <v>1.01908710259829</v>
+      </c>
+      <c r="K19">
+        <v>1.015791643386705</v>
+      </c>
+      <c r="L19">
+        <v>1.021742245717137</v>
+      </c>
+      <c r="M19">
+        <v>1.027521095657431</v>
+      </c>
+      <c r="N19">
+        <v>1.020534323174905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9899204806543342</v>
+      </c>
+      <c r="D20">
+        <v>1.000401355418079</v>
+      </c>
+      <c r="E20">
+        <v>1.006509873871956</v>
+      </c>
+      <c r="F20">
+        <v>1.012212786041893</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.046435319932137</v>
+      </c>
+      <c r="J20">
+        <v>1.017845557508431</v>
+      </c>
+      <c r="K20">
+        <v>1.014437151144188</v>
+      </c>
+      <c r="L20">
+        <v>1.020439212756941</v>
+      </c>
+      <c r="M20">
+        <v>1.026044234649427</v>
+      </c>
+      <c r="N20">
+        <v>1.01929101494861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9835147141144213</v>
+      </c>
+      <c r="D21">
+        <v>0.9948582653381508</v>
+      </c>
+      <c r="E21">
+        <v>1.001152451922741</v>
+      </c>
+      <c r="F21">
+        <v>1.006277022681724</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.04446051350818</v>
+      </c>
+      <c r="J21">
+        <v>1.013718221938323</v>
+      </c>
+      <c r="K21">
+        <v>1.009937708640206</v>
+      </c>
+      <c r="L21">
+        <v>1.016112023593736</v>
+      </c>
+      <c r="M21">
+        <v>1.021140442842317</v>
+      </c>
+      <c r="N21">
+        <v>1.015157818088581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9793770975553111</v>
+      </c>
+      <c r="D22">
+        <v>0.9912853324040137</v>
+      </c>
+      <c r="E22">
+        <v>0.9977009014833641</v>
+      </c>
+      <c r="F22">
+        <v>1.002451620825243</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.043169539230758</v>
+      </c>
+      <c r="J22">
+        <v>1.011049916279254</v>
+      </c>
+      <c r="K22">
+        <v>1.007031428188919</v>
+      </c>
+      <c r="L22">
+        <v>1.013318041967429</v>
+      </c>
+      <c r="M22">
+        <v>1.017974666576773</v>
+      </c>
+      <c r="N22">
+        <v>1.012485723129417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9815813584582798</v>
+      </c>
+      <c r="D23">
+        <v>0.9931880375916101</v>
+      </c>
+      <c r="E23">
+        <v>0.9995388020760102</v>
+      </c>
+      <c r="F23">
+        <v>1.004488714095553</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.043858711478767</v>
+      </c>
+      <c r="J23">
+        <v>1.012471622812664</v>
+      </c>
+      <c r="K23">
+        <v>1.008579687643255</v>
+      </c>
+      <c r="L23">
+        <v>1.014806377449619</v>
+      </c>
+      <c r="M23">
+        <v>1.019661006907186</v>
+      </c>
+      <c r="N23">
+        <v>1.013909448649176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9900260946021182</v>
+      </c>
+      <c r="D24">
+        <v>1.000492864105997</v>
+      </c>
+      <c r="E24">
+        <v>1.006598344890298</v>
+      </c>
+      <c r="F24">
+        <v>1.012310787820465</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.046467618634672</v>
+      </c>
+      <c r="J24">
+        <v>1.017913562324007</v>
+      </c>
+      <c r="K24">
+        <v>1.014511330023137</v>
+      </c>
+      <c r="L24">
+        <v>1.020510568643094</v>
+      </c>
+      <c r="M24">
+        <v>1.026125107161481</v>
+      </c>
+      <c r="N24">
+        <v>1.019359116338824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.999383963370844</v>
+      </c>
+      <c r="D25">
+        <v>1.008616237762375</v>
+      </c>
+      <c r="E25">
+        <v>1.014455716721804</v>
+      </c>
+      <c r="F25">
+        <v>1.021012046596808</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.049292098730273</v>
+      </c>
+      <c r="J25">
+        <v>1.023932077406415</v>
+      </c>
+      <c r="K25">
+        <v>1.021082254160858</v>
+      </c>
+      <c r="L25">
+        <v>1.026833695648512</v>
+      </c>
+      <c r="M25">
+        <v>1.033292704830761</v>
+      </c>
+      <c r="N25">
+        <v>1.025386178402983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006528296142668</v>
+        <v>1.038736733008335</v>
       </c>
       <c r="D2">
-        <v>1.014838668285348</v>
+        <v>1.041381105907747</v>
       </c>
       <c r="E2">
-        <v>1.020479461550701</v>
+        <v>1.046682938841214</v>
       </c>
       <c r="F2">
-        <v>1.027679297654225</v>
+        <v>1.055942536798222</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051392794103019</v>
+        <v>1.038222412079418</v>
       </c>
       <c r="J2">
-        <v>1.028515484976171</v>
+        <v>1.043832550664196</v>
       </c>
       <c r="K2">
-        <v>1.026095076305612</v>
+        <v>1.044160782336763</v>
       </c>
       <c r="L2">
-        <v>1.031660671449212</v>
+        <v>1.049447689178729</v>
       </c>
       <c r="M2">
-        <v>1.038766027556054</v>
+        <v>1.058681608422874</v>
       </c>
       <c r="N2">
-        <v>1.029976094937219</v>
+        <v>1.045314912615406</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011546710757509</v>
+        <v>1.039780827347481</v>
       </c>
       <c r="D3">
-        <v>1.019220370075336</v>
+        <v>1.042339731357351</v>
       </c>
       <c r="E3">
-        <v>1.024724035301816</v>
+        <v>1.047616995513887</v>
       </c>
       <c r="F3">
-        <v>1.032375502584922</v>
+        <v>1.056978071737368</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052835009426807</v>
+        <v>1.038423802944622</v>
       </c>
       <c r="J3">
-        <v>1.031727474710838</v>
+        <v>1.044521087292708</v>
       </c>
       <c r="K3">
-        <v>1.029613090217401</v>
+        <v>1.04492963519491</v>
       </c>
       <c r="L3">
-        <v>1.035050046673086</v>
+        <v>1.050193119988467</v>
       </c>
       <c r="M3">
-        <v>1.042610236240691</v>
+        <v>1.059530118778651</v>
       </c>
       <c r="N3">
-        <v>1.033192646065723</v>
+        <v>1.046004427044906</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014720640489401</v>
+        <v>1.040456342944165</v>
       </c>
       <c r="D4">
-        <v>1.021996319533248</v>
+        <v>1.042960212949667</v>
       </c>
       <c r="E4">
-        <v>1.027414353006352</v>
+        <v>1.048221675935279</v>
       </c>
       <c r="F4">
-        <v>1.035351294791305</v>
+        <v>1.057648404601008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053731316506086</v>
+        <v>1.038552131797294</v>
       </c>
       <c r="J4">
-        <v>1.033755142053446</v>
+        <v>1.044965956123034</v>
       </c>
       <c r="K4">
-        <v>1.031836323392936</v>
+        <v>1.045426702481787</v>
       </c>
       <c r="L4">
-        <v>1.037192797506824</v>
+        <v>1.050675121161455</v>
       </c>
       <c r="M4">
-        <v>1.04504099095502</v>
+        <v>1.060078827881878</v>
       </c>
       <c r="N4">
-        <v>1.035223192928534</v>
+        <v>1.04644992764</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016038084544213</v>
+        <v>1.040740309766123</v>
       </c>
       <c r="D5">
-        <v>1.023149656055568</v>
+        <v>1.043221107631961</v>
       </c>
       <c r="E5">
-        <v>1.028532403972605</v>
+        <v>1.048475950844117</v>
       </c>
       <c r="F5">
-        <v>1.036587804831312</v>
+        <v>1.057930277276346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054099502166071</v>
+        <v>1.038605605736411</v>
       </c>
       <c r="J5">
-        <v>1.034595844807283</v>
+        <v>1.045152820496847</v>
       </c>
       <c r="K5">
-        <v>1.032758685214515</v>
+        <v>1.045635565746029</v>
       </c>
       <c r="L5">
-        <v>1.038081962027862</v>
+        <v>1.05087767204987</v>
       </c>
       <c r="M5">
-        <v>1.046049777739994</v>
+        <v>1.060309424792119</v>
       </c>
       <c r="N5">
-        <v>1.036065089576711</v>
+        <v>1.046637057382657</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016258318555915</v>
+        <v>1.040787987875928</v>
       </c>
       <c r="D6">
-        <v>1.02334251929432</v>
+        <v>1.043264915575461</v>
       </c>
       <c r="E6">
-        <v>1.028719383702121</v>
+        <v>1.048518648647893</v>
       </c>
       <c r="F6">
-        <v>1.036794585009666</v>
+        <v>1.057977608720539</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054160822524439</v>
+        <v>1.038614556349702</v>
       </c>
       <c r="J6">
-        <v>1.034736326230811</v>
+        <v>1.04518418654285</v>
       </c>
       <c r="K6">
-        <v>1.03291284575478</v>
+        <v>1.045670628706603</v>
       </c>
       <c r="L6">
-        <v>1.03823058535673</v>
+        <v>1.050911676390406</v>
       </c>
       <c r="M6">
-        <v>1.046218402408778</v>
+        <v>1.060348138299584</v>
       </c>
       <c r="N6">
-        <v>1.036205770499973</v>
+        <v>1.046668467972043</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014738309684103</v>
+        <v>1.040460137401077</v>
       </c>
       <c r="D7">
-        <v>1.022011783522003</v>
+        <v>1.042963698864067</v>
       </c>
       <c r="E7">
-        <v>1.027429342737826</v>
+        <v>1.048225073305486</v>
       </c>
       <c r="F7">
-        <v>1.035367873404109</v>
+        <v>1.057652170743748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05373626982563</v>
+        <v>1.038552848187651</v>
       </c>
       <c r="J7">
-        <v>1.033766421123397</v>
+        <v>1.044968453637158</v>
       </c>
       <c r="K7">
-        <v>1.031848695744283</v>
+        <v>1.045429493731438</v>
       </c>
       <c r="L7">
-        <v>1.037204723797783</v>
+        <v>1.050677827980686</v>
       </c>
       <c r="M7">
-        <v>1.045054521289845</v>
+        <v>1.060081909445593</v>
       </c>
       <c r="N7">
-        <v>1.035234488016058</v>
+        <v>1.046452428700879</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008239894236627</v>
+        <v>1.039089606817329</v>
       </c>
       <c r="D8">
-        <v>1.016332089747031</v>
+        <v>1.041705038881454</v>
       </c>
       <c r="E8">
-        <v>1.021925880852207</v>
+        <v>1.046998548672813</v>
       </c>
       <c r="F8">
-        <v>1.02927978757217</v>
+        <v>1.05629244395429</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051887970573718</v>
+        <v>1.038290883721478</v>
       </c>
       <c r="J8">
-        <v>1.029611745125121</v>
+        <v>1.044065381357635</v>
       </c>
       <c r="K8">
-        <v>1.027295285244534</v>
+        <v>1.044420708942275</v>
       </c>
       <c r="L8">
-        <v>1.032816822002455</v>
+        <v>1.049699681650605</v>
       </c>
       <c r="M8">
-        <v>1.040077230257461</v>
+        <v>1.058968435308996</v>
       </c>
       <c r="N8">
-        <v>1.031073911901316</v>
+        <v>1.045548073955136</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9961948099298079</v>
+        <v>1.036673918498246</v>
       </c>
       <c r="D9">
-        <v>1.005844390044442</v>
+        <v>1.039488571653383</v>
       </c>
       <c r="E9">
-        <v>1.011773810765527</v>
+        <v>1.044839449429905</v>
       </c>
       <c r="F9">
-        <v>1.018042673367233</v>
+        <v>1.053898540138887</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048338165855391</v>
+        <v>1.03781408783029</v>
       </c>
       <c r="J9">
-        <v>1.021882658560282</v>
+        <v>1.042469010767774</v>
       </c>
       <c r="K9">
-        <v>1.018843352451622</v>
+        <v>1.042639811101048</v>
       </c>
       <c r="L9">
-        <v>1.024678711207481</v>
+        <v>1.047973458873449</v>
       </c>
       <c r="M9">
-        <v>1.030849649414117</v>
+        <v>1.057003815152195</v>
       </c>
       <c r="N9">
-        <v>1.023333849147017</v>
+        <v>1.043949436335931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9877164259550296</v>
+        <v>1.035063025895806</v>
       </c>
       <c r="D10">
-        <v>0.9984925374395347</v>
+        <v>1.038011929723903</v>
       </c>
       <c r="E10">
-        <v>1.004664624623473</v>
+        <v>1.043401554926538</v>
       </c>
       <c r="F10">
-        <v>1.010168606028955</v>
+        <v>1.052304047707812</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04575929634981</v>
+        <v>1.037486039725386</v>
       </c>
       <c r="J10">
-        <v>1.016426022203509</v>
+        <v>1.041401393099898</v>
       </c>
       <c r="K10">
-        <v>1.012889063034762</v>
+        <v>1.041450355278182</v>
       </c>
       <c r="L10">
-        <v>1.018950165502972</v>
+        <v>1.046820915393809</v>
       </c>
       <c r="M10">
-        <v>1.024356658642363</v>
+        <v>1.055692387655047</v>
       </c>
       <c r="N10">
-        <v>1.017869463740733</v>
+        <v>1.042880302528509</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.983926815097674</v>
+        <v>1.034365386603556</v>
       </c>
       <c r="D11">
-        <v>0.9952144449650409</v>
+        <v>1.037372769989</v>
       </c>
       <c r="E11">
-        <v>1.001496603765105</v>
+        <v>1.042779293179493</v>
       </c>
       <c r="F11">
-        <v>1.006658397193334</v>
+        <v>1.051613961719818</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044588456994089</v>
+        <v>1.037341580035911</v>
       </c>
       <c r="J11">
-        <v>1.013983889157685</v>
+        <v>1.040938306668777</v>
       </c>
       <c r="K11">
-        <v>1.010227177682305</v>
+        <v>1.040934791906774</v>
       </c>
       <c r="L11">
-        <v>1.016390351413381</v>
+        <v>1.046321445377326</v>
       </c>
       <c r="M11">
-        <v>1.021455828891512</v>
+        <v>1.055124130743538</v>
       </c>
       <c r="N11">
-        <v>1.015423862585866</v>
+        <v>1.042416558461539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9825002708198898</v>
+        <v>1.034106235145569</v>
       </c>
       <c r="D12">
-        <v>0.9939817275428426</v>
+        <v>1.03713539332951</v>
       </c>
       <c r="E12">
-        <v>1.000305570143599</v>
+        <v>1.042548211303983</v>
       </c>
       <c r="F12">
-        <v>1.005338502592333</v>
+        <v>1.051357684354243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044145062068128</v>
+        <v>1.037287559070557</v>
       </c>
       <c r="J12">
-        <v>1.013064170433325</v>
+        <v>1.040766175584577</v>
       </c>
       <c r="K12">
-        <v>1.009225143628653</v>
+        <v>1.040743210618652</v>
       </c>
       <c r="L12">
-        <v>1.015426918252413</v>
+        <v>1.046135858440937</v>
       </c>
       <c r="M12">
-        <v>1.020364135059215</v>
+        <v>1.054912994951077</v>
       </c>
       <c r="N12">
-        <v>1.014502837755425</v>
+        <v>1.042244182931456</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9828071443711427</v>
+        <v>1.034161824794684</v>
       </c>
       <c r="D13">
-        <v>0.9942468469640809</v>
+        <v>1.037186309807818</v>
       </c>
       <c r="E13">
-        <v>1.000561711309421</v>
+        <v>1.042597776708622</v>
       </c>
       <c r="F13">
-        <v>1.005622366187966</v>
+        <v>1.051412654393856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044240562117944</v>
+        <v>1.037299163137158</v>
       </c>
       <c r="J13">
-        <v>1.013262034945053</v>
+        <v>1.040803103721537</v>
       </c>
       <c r="K13">
-        <v>1.009440697084694</v>
+        <v>1.040784308986163</v>
       </c>
       <c r="L13">
-        <v>1.0156341599541</v>
+        <v>1.046175670249699</v>
       </c>
       <c r="M13">
-        <v>1.02059896266947</v>
+        <v>1.054958287000835</v>
       </c>
       <c r="N13">
-        <v>1.014700983257455</v>
+        <v>1.042281163510606</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838092891693477</v>
+        <v>1.034343965415115</v>
       </c>
       <c r="D14">
-        <v>0.9951128611725729</v>
+        <v>1.037353147629943</v>
       </c>
       <c r="E14">
-        <v>1.001398448992133</v>
+        <v>1.042760190779185</v>
       </c>
       <c r="F14">
-        <v>1.006549627220586</v>
+        <v>1.051592776704965</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044551981237288</v>
+        <v>1.037337122033353</v>
       </c>
       <c r="J14">
-        <v>1.013908126099952</v>
+        <v>1.04092408071004</v>
       </c>
       <c r="K14">
-        <v>1.010144624775194</v>
+        <v>1.040918957329739</v>
       </c>
       <c r="L14">
-        <v>1.016310975022719</v>
+        <v>1.046306105957236</v>
       </c>
       <c r="M14">
-        <v>1.021365883454848</v>
+        <v>1.055106679413087</v>
       </c>
       <c r="N14">
-        <v>1.015347991935902</v>
+        <v>1.042402312300309</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9844242021829941</v>
+        <v>1.034456185979218</v>
       </c>
       <c r="D15">
-        <v>0.995644414881928</v>
+        <v>1.037455946660448</v>
       </c>
       <c r="E15">
-        <v>1.001912071751465</v>
+        <v>1.042860266593548</v>
       </c>
       <c r="F15">
-        <v>1.007118788247435</v>
+        <v>1.051703762810342</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044742720339988</v>
+        <v>1.037360461774625</v>
       </c>
       <c r="J15">
-        <v>1.014304513162261</v>
+        <v>1.040998602707305</v>
       </c>
       <c r="K15">
-        <v>1.010576553944545</v>
+        <v>1.041001908275533</v>
       </c>
       <c r="L15">
-        <v>1.016726291436414</v>
+        <v>1.046386463554519</v>
       </c>
       <c r="M15">
-        <v>1.021836503203602</v>
+        <v>1.055198100949183</v>
       </c>
       <c r="N15">
-        <v>1.015744941913305</v>
+        <v>1.042476940127358</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9879653412553172</v>
+        <v>1.035109323528358</v>
       </c>
       <c r="D16">
-        <v>0.9987080265965083</v>
+        <v>1.038054353645479</v>
       </c>
       <c r="E16">
-        <v>1.004872917922638</v>
+        <v>1.043442859921072</v>
       </c>
       <c r="F16">
-        <v>1.010399368821026</v>
+        <v>1.052349853622001</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045835830159417</v>
+        <v>1.037495576230139</v>
       </c>
       <c r="J16">
-        <v>1.016586369675085</v>
+        <v>1.041432109760754</v>
       </c>
       <c r="K16">
-        <v>1.013063900803653</v>
+        <v>1.041484560558364</v>
       </c>
       <c r="L16">
-        <v>1.019118323353429</v>
+        <v>1.046854054932292</v>
       </c>
       <c r="M16">
-        <v>1.024547230325949</v>
+        <v>1.055730092585014</v>
       </c>
       <c r="N16">
-        <v>1.01803003892411</v>
+        <v>1.042911062810547</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9901541363956865</v>
+        <v>1.035518989209341</v>
       </c>
       <c r="D17">
-        <v>1.000603810434815</v>
+        <v>1.038429781907134</v>
       </c>
       <c r="E17">
-        <v>1.006705609518216</v>
+        <v>1.04380840089985</v>
       </c>
       <c r="F17">
-        <v>1.012429606933703</v>
+        <v>1.052755220460972</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046506764344801</v>
+        <v>1.037579684207734</v>
       </c>
       <c r="J17">
-        <v>1.01799600633423</v>
+        <v>1.041703822968636</v>
       </c>
       <c r="K17">
-        <v>1.014601260943512</v>
+        <v>1.041787176200448</v>
       </c>
       <c r="L17">
-        <v>1.020597077847606</v>
+        <v>1.047147252753371</v>
       </c>
       <c r="M17">
-        <v>1.026223154342714</v>
+        <v>1.056063689925798</v>
       </c>
       <c r="N17">
-        <v>1.019441677428998</v>
+        <v>1.043183161882349</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9914194788778045</v>
+        <v>1.035757929468834</v>
       </c>
       <c r="D18">
-        <v>1.001700514380921</v>
+        <v>1.038648785609608</v>
       </c>
       <c r="E18">
-        <v>1.007765991370303</v>
+        <v>1.044021649099997</v>
       </c>
       <c r="F18">
-        <v>1.013604161617754</v>
+        <v>1.052991696844933</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046892907505803</v>
+        <v>1.037628510159797</v>
       </c>
       <c r="J18">
-        <v>1.018810613647975</v>
+        <v>1.041862231396216</v>
       </c>
       <c r="K18">
-        <v>1.015489959149748</v>
+        <v>1.041963636488</v>
       </c>
       <c r="L18">
-        <v>1.021452006746986</v>
+        <v>1.047318230403285</v>
       </c>
       <c r="M18">
-        <v>1.027192129830083</v>
+        <v>1.056258232985835</v>
       </c>
       <c r="N18">
-        <v>1.020257441578566</v>
+        <v>1.043341795268067</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9918490363458135</v>
+        <v>1.035839400099874</v>
       </c>
       <c r="D19">
-        <v>1.0020729479207</v>
+        <v>1.03872346406283</v>
       </c>
       <c r="E19">
-        <v>1.008126119800242</v>
+        <v>1.044094367037952</v>
       </c>
       <c r="F19">
-        <v>1.014003044558809</v>
+        <v>1.053072334730534</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047023700398545</v>
+        <v>1.037645119050886</v>
       </c>
       <c r="J19">
-        <v>1.01908710259829</v>
+        <v>1.041916231461573</v>
       </c>
       <c r="K19">
-        <v>1.015791643386705</v>
+        <v>1.042023796348545</v>
       </c>
       <c r="L19">
-        <v>1.021742245717137</v>
+        <v>1.047376522626269</v>
       </c>
       <c r="M19">
-        <v>1.027521095657431</v>
+        <v>1.056324560582901</v>
       </c>
       <c r="N19">
-        <v>1.020534323174905</v>
+        <v>1.043395872019711</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9899204806543342</v>
+        <v>1.035475037078116</v>
       </c>
       <c r="D20">
-        <v>1.000401355418079</v>
+        <v>1.038389499652519</v>
       </c>
       <c r="E20">
-        <v>1.006509873871956</v>
+        <v>1.043769178258546</v>
       </c>
       <c r="F20">
-        <v>1.012212786041893</v>
+        <v>1.052711725044508</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046435319932137</v>
+        <v>1.037570684296122</v>
       </c>
       <c r="J20">
-        <v>1.017845557508431</v>
+        <v>1.041674678706003</v>
       </c>
       <c r="K20">
-        <v>1.014437151144188</v>
+        <v>1.04175471360683</v>
       </c>
       <c r="L20">
-        <v>1.020439212756941</v>
+        <v>1.047115799504359</v>
       </c>
       <c r="M20">
-        <v>1.026044234649427</v>
+        <v>1.056027902081524</v>
       </c>
       <c r="N20">
-        <v>1.01929101494861</v>
+        <v>1.043153976231521</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9835147141144213</v>
+        <v>1.034290330018414</v>
       </c>
       <c r="D21">
-        <v>0.9948582653381508</v>
+        <v>1.037304017061306</v>
       </c>
       <c r="E21">
-        <v>1.001152451922741</v>
+        <v>1.042712362394344</v>
       </c>
       <c r="F21">
-        <v>1.006277022681724</v>
+        <v>1.051539733755745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04446051350818</v>
+        <v>1.037325954080958</v>
       </c>
       <c r="J21">
-        <v>1.013718221938323</v>
+        <v>1.040888459318019</v>
       </c>
       <c r="K21">
-        <v>1.009937708640206</v>
+        <v>1.04087930890284</v>
       </c>
       <c r="L21">
-        <v>1.016112023593736</v>
+        <v>1.046267697589211</v>
       </c>
       <c r="M21">
-        <v>1.021140442842317</v>
+        <v>1.05506298319714</v>
       </c>
       <c r="N21">
-        <v>1.015157818088581</v>
+        <v>1.042366640321826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9793770975553111</v>
+        <v>1.033545358216279</v>
       </c>
       <c r="D22">
-        <v>0.9912853324040137</v>
+        <v>1.03662173789674</v>
       </c>
       <c r="E22">
-        <v>0.9977009014833641</v>
+        <v>1.042048212006838</v>
       </c>
       <c r="F22">
-        <v>1.002451620825243</v>
+        <v>1.050803153222468</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043169539230758</v>
+        <v>1.037169987009761</v>
       </c>
       <c r="J22">
-        <v>1.011049916279254</v>
+        <v>1.040393436826483</v>
       </c>
       <c r="K22">
-        <v>1.007031428188919</v>
+        <v>1.04032845547381</v>
       </c>
       <c r="L22">
-        <v>1.013318041967429</v>
+        <v>1.045734106350039</v>
       </c>
       <c r="M22">
-        <v>1.017974666576773</v>
+        <v>1.054455954102093</v>
       </c>
       <c r="N22">
-        <v>1.012485723129417</v>
+        <v>1.041870914841571</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9815813584582798</v>
+        <v>1.03394029139564</v>
       </c>
       <c r="D23">
-        <v>0.9931880375916101</v>
+        <v>1.036983407296744</v>
       </c>
       <c r="E23">
-        <v>0.9995388020760102</v>
+        <v>1.042400261033502</v>
       </c>
       <c r="F23">
-        <v>1.004488714095553</v>
+        <v>1.051193600273864</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043858711478767</v>
+        <v>1.037252866641107</v>
       </c>
       <c r="J23">
-        <v>1.012471622812664</v>
+        <v>1.040655923453987</v>
       </c>
       <c r="K23">
-        <v>1.008579687643255</v>
+        <v>1.040620516053918</v>
       </c>
       <c r="L23">
-        <v>1.014806377449619</v>
+        <v>1.046017006822825</v>
       </c>
       <c r="M23">
-        <v>1.019661006907186</v>
+        <v>1.054777784455464</v>
       </c>
       <c r="N23">
-        <v>1.013909448649176</v>
+        <v>1.042133774230194</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9900260946021182</v>
+        <v>1.03549489718748</v>
       </c>
       <c r="D24">
-        <v>1.000492864105997</v>
+        <v>1.038407701399062</v>
       </c>
       <c r="E24">
-        <v>1.006598344890298</v>
+        <v>1.043786901175676</v>
       </c>
       <c r="F24">
-        <v>1.012310787820465</v>
+        <v>1.052731378649621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046467618634672</v>
+        <v>1.037574751688086</v>
       </c>
       <c r="J24">
-        <v>1.017913562324007</v>
+        <v>1.0416878479825</v>
       </c>
       <c r="K24">
-        <v>1.014511330023137</v>
+        <v>1.04176938221086</v>
       </c>
       <c r="L24">
-        <v>1.020510568643094</v>
+        <v>1.047130011996211</v>
       </c>
       <c r="M24">
-        <v>1.026125107161481</v>
+        <v>1.056044073187125</v>
       </c>
       <c r="N24">
-        <v>1.019359116338824</v>
+        <v>1.043167164209902</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.999383963370844</v>
+        <v>1.037298507928588</v>
       </c>
       <c r="D25">
-        <v>1.008616237762375</v>
+        <v>1.040061406697026</v>
       </c>
       <c r="E25">
-        <v>1.014455716721804</v>
+        <v>1.045397365242152</v>
       </c>
       <c r="F25">
-        <v>1.021012046596808</v>
+        <v>1.054517169103741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049292098730273</v>
+        <v>1.037939147665924</v>
       </c>
       <c r="J25">
-        <v>1.023932077406415</v>
+        <v>1.04288230630867</v>
       </c>
       <c r="K25">
-        <v>1.021082254160858</v>
+        <v>1.043100603539905</v>
       </c>
       <c r="L25">
-        <v>1.026833695648512</v>
+        <v>1.048420035085152</v>
       </c>
       <c r="M25">
-        <v>1.033292704830761</v>
+        <v>1.057512014573341</v>
       </c>
       <c r="N25">
-        <v>1.025386178402983</v>
+        <v>1.044363318803901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038736733008335</v>
+        <v>1.006528296142668</v>
       </c>
       <c r="D2">
-        <v>1.041381105907747</v>
+        <v>1.014838668285348</v>
       </c>
       <c r="E2">
-        <v>1.046682938841214</v>
+        <v>1.020479461550701</v>
       </c>
       <c r="F2">
-        <v>1.055942536798222</v>
+        <v>1.027679297654225</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038222412079418</v>
+        <v>1.051392794103018</v>
       </c>
       <c r="J2">
-        <v>1.043832550664196</v>
+        <v>1.028515484976171</v>
       </c>
       <c r="K2">
-        <v>1.044160782336763</v>
+        <v>1.026095076305612</v>
       </c>
       <c r="L2">
-        <v>1.049447689178729</v>
+        <v>1.031660671449212</v>
       </c>
       <c r="M2">
-        <v>1.058681608422874</v>
+        <v>1.038766027556054</v>
       </c>
       <c r="N2">
-        <v>1.045314912615406</v>
+        <v>1.029976094937219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039780827347481</v>
+        <v>1.011546710757508</v>
       </c>
       <c r="D3">
-        <v>1.042339731357351</v>
+        <v>1.019220370075335</v>
       </c>
       <c r="E3">
-        <v>1.047616995513887</v>
+        <v>1.024724035301814</v>
       </c>
       <c r="F3">
-        <v>1.056978071737368</v>
+        <v>1.03237550258492</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038423802944622</v>
+        <v>1.052835009426806</v>
       </c>
       <c r="J3">
-        <v>1.044521087292708</v>
+        <v>1.031727474710837</v>
       </c>
       <c r="K3">
-        <v>1.04492963519491</v>
+        <v>1.0296130902174</v>
       </c>
       <c r="L3">
-        <v>1.050193119988467</v>
+        <v>1.035050046673085</v>
       </c>
       <c r="M3">
-        <v>1.059530118778651</v>
+        <v>1.04261023624069</v>
       </c>
       <c r="N3">
-        <v>1.046004427044906</v>
+        <v>1.033192646065722</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040456342944165</v>
+        <v>1.014720640489401</v>
       </c>
       <c r="D4">
-        <v>1.042960212949667</v>
+        <v>1.021996319533248</v>
       </c>
       <c r="E4">
-        <v>1.048221675935279</v>
+        <v>1.027414353006352</v>
       </c>
       <c r="F4">
-        <v>1.057648404601008</v>
+        <v>1.035351294791305</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038552131797294</v>
+        <v>1.053731316506086</v>
       </c>
       <c r="J4">
-        <v>1.044965956123034</v>
+        <v>1.033755142053446</v>
       </c>
       <c r="K4">
-        <v>1.045426702481787</v>
+        <v>1.031836323392936</v>
       </c>
       <c r="L4">
-        <v>1.050675121161455</v>
+        <v>1.037192797506824</v>
       </c>
       <c r="M4">
-        <v>1.060078827881878</v>
+        <v>1.04504099095502</v>
       </c>
       <c r="N4">
-        <v>1.04644992764</v>
+        <v>1.035223192928534</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040740309766123</v>
+        <v>1.016038084544213</v>
       </c>
       <c r="D5">
-        <v>1.043221107631961</v>
+        <v>1.023149656055567</v>
       </c>
       <c r="E5">
-        <v>1.048475950844117</v>
+        <v>1.028532403972605</v>
       </c>
       <c r="F5">
-        <v>1.057930277276346</v>
+        <v>1.036587804831311</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038605605736411</v>
+        <v>1.054099502166072</v>
       </c>
       <c r="J5">
-        <v>1.045152820496847</v>
+        <v>1.034595844807283</v>
       </c>
       <c r="K5">
-        <v>1.045635565746029</v>
+        <v>1.032758685214515</v>
       </c>
       <c r="L5">
-        <v>1.05087767204987</v>
+        <v>1.038081962027863</v>
       </c>
       <c r="M5">
-        <v>1.060309424792119</v>
+        <v>1.046049777739994</v>
       </c>
       <c r="N5">
-        <v>1.046637057382657</v>
+        <v>1.036065089576711</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040787987875928</v>
+        <v>1.016258318555915</v>
       </c>
       <c r="D6">
-        <v>1.043264915575461</v>
+        <v>1.02334251929432</v>
       </c>
       <c r="E6">
-        <v>1.048518648647893</v>
+        <v>1.028719383702121</v>
       </c>
       <c r="F6">
-        <v>1.057977608720539</v>
+        <v>1.036794585009666</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038614556349702</v>
+        <v>1.054160822524439</v>
       </c>
       <c r="J6">
-        <v>1.04518418654285</v>
+        <v>1.034736326230811</v>
       </c>
       <c r="K6">
-        <v>1.045670628706603</v>
+        <v>1.03291284575478</v>
       </c>
       <c r="L6">
-        <v>1.050911676390406</v>
+        <v>1.03823058535673</v>
       </c>
       <c r="M6">
-        <v>1.060348138299584</v>
+        <v>1.046218402408778</v>
       </c>
       <c r="N6">
-        <v>1.046668467972043</v>
+        <v>1.036205770499974</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040460137401077</v>
+        <v>1.014738309684103</v>
       </c>
       <c r="D7">
-        <v>1.042963698864067</v>
+        <v>1.022011783522003</v>
       </c>
       <c r="E7">
-        <v>1.048225073305486</v>
+        <v>1.027429342737826</v>
       </c>
       <c r="F7">
-        <v>1.057652170743748</v>
+        <v>1.035367873404109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038552848187651</v>
+        <v>1.05373626982563</v>
       </c>
       <c r="J7">
-        <v>1.044968453637158</v>
+        <v>1.033766421123397</v>
       </c>
       <c r="K7">
-        <v>1.045429493731438</v>
+        <v>1.031848695744283</v>
       </c>
       <c r="L7">
-        <v>1.050677827980686</v>
+        <v>1.037204723797783</v>
       </c>
       <c r="M7">
-        <v>1.060081909445593</v>
+        <v>1.045054521289845</v>
       </c>
       <c r="N7">
-        <v>1.046452428700879</v>
+        <v>1.035234488016058</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039089606817329</v>
+        <v>1.008239894236627</v>
       </c>
       <c r="D8">
-        <v>1.041705038881454</v>
+        <v>1.016332089747032</v>
       </c>
       <c r="E8">
-        <v>1.046998548672813</v>
+        <v>1.021925880852207</v>
       </c>
       <c r="F8">
-        <v>1.05629244395429</v>
+        <v>1.02927978757217</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038290883721478</v>
+        <v>1.051887970573718</v>
       </c>
       <c r="J8">
-        <v>1.044065381357635</v>
+        <v>1.029611745125121</v>
       </c>
       <c r="K8">
-        <v>1.044420708942275</v>
+        <v>1.027295285244534</v>
       </c>
       <c r="L8">
-        <v>1.049699681650605</v>
+        <v>1.032816822002455</v>
       </c>
       <c r="M8">
-        <v>1.058968435308996</v>
+        <v>1.040077230257461</v>
       </c>
       <c r="N8">
-        <v>1.045548073955136</v>
+        <v>1.031073911901317</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036673918498246</v>
+        <v>0.9961948099298072</v>
       </c>
       <c r="D9">
-        <v>1.039488571653383</v>
+        <v>1.005844390044441</v>
       </c>
       <c r="E9">
-        <v>1.044839449429905</v>
+        <v>1.011773810765526</v>
       </c>
       <c r="F9">
-        <v>1.053898540138887</v>
+        <v>1.018042673367232</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03781408783029</v>
+        <v>1.048338165855391</v>
       </c>
       <c r="J9">
-        <v>1.042469010767774</v>
+        <v>1.021882658560281</v>
       </c>
       <c r="K9">
-        <v>1.042639811101048</v>
+        <v>1.018843352451621</v>
       </c>
       <c r="L9">
-        <v>1.047973458873449</v>
+        <v>1.02467871120748</v>
       </c>
       <c r="M9">
-        <v>1.057003815152195</v>
+        <v>1.030849649414116</v>
       </c>
       <c r="N9">
-        <v>1.043949436335931</v>
+        <v>1.023333849147016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035063025895806</v>
+        <v>0.9877164259550287</v>
       </c>
       <c r="D10">
-        <v>1.038011929723903</v>
+        <v>0.9984925374395337</v>
       </c>
       <c r="E10">
-        <v>1.043401554926538</v>
+        <v>1.004664624623472</v>
       </c>
       <c r="F10">
-        <v>1.052304047707812</v>
+        <v>1.010168606028954</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037486039725386</v>
+        <v>1.045759296349809</v>
       </c>
       <c r="J10">
-        <v>1.041401393099898</v>
+        <v>1.016426022203508</v>
       </c>
       <c r="K10">
-        <v>1.041450355278182</v>
+        <v>1.012889063034762</v>
       </c>
       <c r="L10">
-        <v>1.046820915393809</v>
+        <v>1.018950165502971</v>
       </c>
       <c r="M10">
-        <v>1.055692387655047</v>
+        <v>1.024356658642362</v>
       </c>
       <c r="N10">
-        <v>1.042880302528509</v>
+        <v>1.017869463740732</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034365386603556</v>
+        <v>0.9839268150976738</v>
       </c>
       <c r="D11">
-        <v>1.037372769989</v>
+        <v>0.9952144449650409</v>
       </c>
       <c r="E11">
-        <v>1.042779293179493</v>
+        <v>1.001496603765105</v>
       </c>
       <c r="F11">
-        <v>1.051613961719818</v>
+        <v>1.006658397193334</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037341580035911</v>
+        <v>1.044588456994089</v>
       </c>
       <c r="J11">
-        <v>1.040938306668777</v>
+        <v>1.013983889157685</v>
       </c>
       <c r="K11">
-        <v>1.040934791906774</v>
+        <v>1.010227177682305</v>
       </c>
       <c r="L11">
-        <v>1.046321445377326</v>
+        <v>1.016390351413381</v>
       </c>
       <c r="M11">
-        <v>1.055124130743538</v>
+        <v>1.021455828891512</v>
       </c>
       <c r="N11">
-        <v>1.042416558461539</v>
+        <v>1.015423862585867</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034106235145569</v>
+        <v>0.9825002708198891</v>
       </c>
       <c r="D12">
-        <v>1.03713539332951</v>
+        <v>0.9939817275428416</v>
       </c>
       <c r="E12">
-        <v>1.042548211303983</v>
+        <v>1.000305570143598</v>
       </c>
       <c r="F12">
-        <v>1.051357684354243</v>
+        <v>1.005338502592332</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037287559070557</v>
+        <v>1.044145062068128</v>
       </c>
       <c r="J12">
-        <v>1.040766175584577</v>
+        <v>1.013064170433324</v>
       </c>
       <c r="K12">
-        <v>1.040743210618652</v>
+        <v>1.009225143628652</v>
       </c>
       <c r="L12">
-        <v>1.046135858440937</v>
+        <v>1.015426918252412</v>
       </c>
       <c r="M12">
-        <v>1.054912994951077</v>
+        <v>1.020364135059214</v>
       </c>
       <c r="N12">
-        <v>1.042244182931456</v>
+        <v>1.014502837755424</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034161824794684</v>
+        <v>0.9828071443711424</v>
       </c>
       <c r="D13">
-        <v>1.037186309807818</v>
+        <v>0.9942468469640808</v>
       </c>
       <c r="E13">
-        <v>1.042597776708622</v>
+        <v>1.00056171130942</v>
       </c>
       <c r="F13">
-        <v>1.051412654393856</v>
+        <v>1.005622366187965</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037299163137158</v>
+        <v>1.044240562117944</v>
       </c>
       <c r="J13">
-        <v>1.040803103721537</v>
+        <v>1.013262034945053</v>
       </c>
       <c r="K13">
-        <v>1.040784308986163</v>
+        <v>1.009440697084693</v>
       </c>
       <c r="L13">
-        <v>1.046175670249699</v>
+        <v>1.0156341599541</v>
       </c>
       <c r="M13">
-        <v>1.054958287000835</v>
+        <v>1.02059896266947</v>
       </c>
       <c r="N13">
-        <v>1.042281163510606</v>
+        <v>1.014700983257455</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034343965415115</v>
+        <v>0.9838092891693472</v>
       </c>
       <c r="D14">
-        <v>1.037353147629943</v>
+        <v>0.9951128611725722</v>
       </c>
       <c r="E14">
-        <v>1.042760190779185</v>
+        <v>1.001398448992132</v>
       </c>
       <c r="F14">
-        <v>1.051592776704965</v>
+        <v>1.006549627220586</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037337122033353</v>
+        <v>1.044551981237287</v>
       </c>
       <c r="J14">
-        <v>1.04092408071004</v>
+        <v>1.013908126099952</v>
       </c>
       <c r="K14">
-        <v>1.040918957329739</v>
+        <v>1.010144624775194</v>
       </c>
       <c r="L14">
-        <v>1.046306105957236</v>
+        <v>1.016310975022718</v>
       </c>
       <c r="M14">
-        <v>1.055106679413087</v>
+        <v>1.021365883454848</v>
       </c>
       <c r="N14">
-        <v>1.042402312300309</v>
+        <v>1.015347991935901</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034456185979218</v>
+        <v>0.9844242021829931</v>
       </c>
       <c r="D15">
-        <v>1.037455946660448</v>
+        <v>0.9956444148819269</v>
       </c>
       <c r="E15">
-        <v>1.042860266593548</v>
+        <v>1.001912071751464</v>
       </c>
       <c r="F15">
-        <v>1.051703762810342</v>
+        <v>1.007118788247434</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037360461774625</v>
+        <v>1.044742720339987</v>
       </c>
       <c r="J15">
-        <v>1.040998602707305</v>
+        <v>1.01430451316226</v>
       </c>
       <c r="K15">
-        <v>1.041001908275533</v>
+        <v>1.010576553944544</v>
       </c>
       <c r="L15">
-        <v>1.046386463554519</v>
+        <v>1.016726291436414</v>
       </c>
       <c r="M15">
-        <v>1.055198100949183</v>
+        <v>1.021836503203602</v>
       </c>
       <c r="N15">
-        <v>1.042476940127358</v>
+        <v>1.015744941913304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035109323528358</v>
+        <v>0.9879653412553173</v>
       </c>
       <c r="D16">
-        <v>1.038054353645479</v>
+        <v>0.9987080265965085</v>
       </c>
       <c r="E16">
-        <v>1.043442859921072</v>
+        <v>1.004872917922637</v>
       </c>
       <c r="F16">
-        <v>1.052349853622001</v>
+        <v>1.010399368821026</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037495576230139</v>
+        <v>1.045835830159417</v>
       </c>
       <c r="J16">
-        <v>1.041432109760754</v>
+        <v>1.016586369675085</v>
       </c>
       <c r="K16">
-        <v>1.041484560558364</v>
+        <v>1.013063900803653</v>
       </c>
       <c r="L16">
-        <v>1.046854054932292</v>
+        <v>1.019118323353429</v>
       </c>
       <c r="M16">
-        <v>1.055730092585014</v>
+        <v>1.024547230325949</v>
       </c>
       <c r="N16">
-        <v>1.042911062810547</v>
+        <v>1.01803003892411</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035518989209341</v>
+        <v>0.9901541363956868</v>
       </c>
       <c r="D17">
-        <v>1.038429781907134</v>
+        <v>1.000603810434816</v>
       </c>
       <c r="E17">
-        <v>1.04380840089985</v>
+        <v>1.006705609518216</v>
       </c>
       <c r="F17">
-        <v>1.052755220460972</v>
+        <v>1.012429606933703</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037579684207734</v>
+        <v>1.046506764344801</v>
       </c>
       <c r="J17">
-        <v>1.041703822968636</v>
+        <v>1.01799600633423</v>
       </c>
       <c r="K17">
-        <v>1.041787176200448</v>
+        <v>1.014601260943512</v>
       </c>
       <c r="L17">
-        <v>1.047147252753371</v>
+        <v>1.020597077847606</v>
       </c>
       <c r="M17">
-        <v>1.056063689925798</v>
+        <v>1.026223154342715</v>
       </c>
       <c r="N17">
-        <v>1.043183161882349</v>
+        <v>1.019441677428999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035757929468834</v>
+        <v>0.9914194788778032</v>
       </c>
       <c r="D18">
-        <v>1.038648785609608</v>
+        <v>1.00170051438092</v>
       </c>
       <c r="E18">
-        <v>1.044021649099997</v>
+        <v>1.007765991370302</v>
       </c>
       <c r="F18">
-        <v>1.052991696844933</v>
+        <v>1.013604161617754</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037628510159797</v>
+        <v>1.046892907505802</v>
       </c>
       <c r="J18">
-        <v>1.041862231396216</v>
+        <v>1.018810613647974</v>
       </c>
       <c r="K18">
-        <v>1.041963636488</v>
+        <v>1.015489959149746</v>
       </c>
       <c r="L18">
-        <v>1.047318230403285</v>
+        <v>1.021452006746985</v>
       </c>
       <c r="M18">
-        <v>1.056258232985835</v>
+        <v>1.027192129830083</v>
       </c>
       <c r="N18">
-        <v>1.043341795268067</v>
+        <v>1.020257441578565</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035839400099874</v>
+        <v>0.9918490363458122</v>
       </c>
       <c r="D19">
-        <v>1.03872346406283</v>
+        <v>1.002072947920699</v>
       </c>
       <c r="E19">
-        <v>1.044094367037952</v>
+        <v>1.008126119800241</v>
       </c>
       <c r="F19">
-        <v>1.053072334730534</v>
+        <v>1.014003044558808</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037645119050886</v>
+        <v>1.047023700398545</v>
       </c>
       <c r="J19">
-        <v>1.041916231461573</v>
+        <v>1.019087102598289</v>
       </c>
       <c r="K19">
-        <v>1.042023796348545</v>
+        <v>1.015791643386704</v>
       </c>
       <c r="L19">
-        <v>1.047376522626269</v>
+        <v>1.021742245717135</v>
       </c>
       <c r="M19">
-        <v>1.056324560582901</v>
+        <v>1.02752109565743</v>
       </c>
       <c r="N19">
-        <v>1.043395872019711</v>
+        <v>1.020534323174904</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035475037078116</v>
+        <v>0.9899204806543338</v>
       </c>
       <c r="D20">
-        <v>1.038389499652519</v>
+        <v>1.000401355418079</v>
       </c>
       <c r="E20">
-        <v>1.043769178258546</v>
+        <v>1.006509873871956</v>
       </c>
       <c r="F20">
-        <v>1.052711725044508</v>
+        <v>1.012212786041892</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037570684296122</v>
+        <v>1.046435319932136</v>
       </c>
       <c r="J20">
-        <v>1.041674678706003</v>
+        <v>1.017845557508431</v>
       </c>
       <c r="K20">
-        <v>1.04175471360683</v>
+        <v>1.014437151144188</v>
       </c>
       <c r="L20">
-        <v>1.047115799504359</v>
+        <v>1.020439212756941</v>
       </c>
       <c r="M20">
-        <v>1.056027902081524</v>
+        <v>1.026044234649427</v>
       </c>
       <c r="N20">
-        <v>1.043153976231521</v>
+        <v>1.019291014948611</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034290330018414</v>
+        <v>0.9835147141144212</v>
       </c>
       <c r="D21">
-        <v>1.037304017061306</v>
+        <v>0.994858265338151</v>
       </c>
       <c r="E21">
-        <v>1.042712362394344</v>
+        <v>1.001152451922741</v>
       </c>
       <c r="F21">
-        <v>1.051539733755745</v>
+        <v>1.006277022681723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037325954080958</v>
+        <v>1.04446051350818</v>
       </c>
       <c r="J21">
-        <v>1.040888459318019</v>
+        <v>1.013718221938323</v>
       </c>
       <c r="K21">
-        <v>1.04087930890284</v>
+        <v>1.009937708640206</v>
       </c>
       <c r="L21">
-        <v>1.046267697589211</v>
+        <v>1.016112023593736</v>
       </c>
       <c r="M21">
-        <v>1.05506298319714</v>
+        <v>1.021140442842317</v>
       </c>
       <c r="N21">
-        <v>1.042366640321826</v>
+        <v>1.015157818088581</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033545358216279</v>
+        <v>0.979377097555311</v>
       </c>
       <c r="D22">
-        <v>1.03662173789674</v>
+        <v>0.9912853324040135</v>
       </c>
       <c r="E22">
-        <v>1.042048212006838</v>
+        <v>0.9977009014833639</v>
       </c>
       <c r="F22">
-        <v>1.050803153222468</v>
+        <v>1.002451620825243</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037169987009761</v>
+        <v>1.043169539230758</v>
       </c>
       <c r="J22">
-        <v>1.040393436826483</v>
+        <v>1.011049916279254</v>
       </c>
       <c r="K22">
-        <v>1.04032845547381</v>
+        <v>1.007031428188919</v>
       </c>
       <c r="L22">
-        <v>1.045734106350039</v>
+        <v>1.013318041967429</v>
       </c>
       <c r="M22">
-        <v>1.054455954102093</v>
+        <v>1.017974666576773</v>
       </c>
       <c r="N22">
-        <v>1.041870914841571</v>
+        <v>1.012485723129417</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03394029139564</v>
+        <v>0.9815813584582795</v>
       </c>
       <c r="D23">
-        <v>1.036983407296744</v>
+        <v>0.9931880375916102</v>
       </c>
       <c r="E23">
-        <v>1.042400261033502</v>
+        <v>0.9995388020760101</v>
       </c>
       <c r="F23">
-        <v>1.051193600273864</v>
+        <v>1.004488714095553</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037252866641107</v>
+        <v>1.043858711478767</v>
       </c>
       <c r="J23">
-        <v>1.040655923453987</v>
+        <v>1.012471622812664</v>
       </c>
       <c r="K23">
-        <v>1.040620516053918</v>
+        <v>1.008579687643255</v>
       </c>
       <c r="L23">
-        <v>1.046017006822825</v>
+        <v>1.014806377449619</v>
       </c>
       <c r="M23">
-        <v>1.054777784455464</v>
+        <v>1.019661006907186</v>
       </c>
       <c r="N23">
-        <v>1.042133774230194</v>
+        <v>1.013909448649176</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03549489718748</v>
+        <v>0.9900260946021175</v>
       </c>
       <c r="D24">
-        <v>1.038407701399062</v>
+        <v>1.000492864105996</v>
       </c>
       <c r="E24">
-        <v>1.043786901175676</v>
+        <v>1.006598344890298</v>
       </c>
       <c r="F24">
-        <v>1.052731378649621</v>
+        <v>1.012310787820464</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037574751688086</v>
+        <v>1.046467618634672</v>
       </c>
       <c r="J24">
-        <v>1.0416878479825</v>
+        <v>1.017913562324006</v>
       </c>
       <c r="K24">
-        <v>1.04176938221086</v>
+        <v>1.014511330023136</v>
       </c>
       <c r="L24">
-        <v>1.047130011996211</v>
+        <v>1.020510568643093</v>
       </c>
       <c r="M24">
-        <v>1.056044073187125</v>
+        <v>1.02612510716148</v>
       </c>
       <c r="N24">
-        <v>1.043167164209902</v>
+        <v>1.019359116338824</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037298507928588</v>
+        <v>0.9993839633708442</v>
       </c>
       <c r="D25">
-        <v>1.040061406697026</v>
+        <v>1.008616237762375</v>
       </c>
       <c r="E25">
-        <v>1.045397365242152</v>
+        <v>1.014455716721804</v>
       </c>
       <c r="F25">
-        <v>1.054517169103741</v>
+        <v>1.021012046596808</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037939147665924</v>
+        <v>1.049292098730273</v>
       </c>
       <c r="J25">
-        <v>1.04288230630867</v>
+        <v>1.023932077406415</v>
       </c>
       <c r="K25">
-        <v>1.043100603539905</v>
+        <v>1.021082254160858</v>
       </c>
       <c r="L25">
-        <v>1.048420035085152</v>
+        <v>1.026833695648513</v>
       </c>
       <c r="M25">
-        <v>1.057512014573341</v>
+        <v>1.033292704830762</v>
       </c>
       <c r="N25">
-        <v>1.044363318803901</v>
+        <v>1.025386178402983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006528296142668</v>
+        <v>0.9791593085042382</v>
       </c>
       <c r="D2">
-        <v>1.014838668285348</v>
+        <v>0.9982300121753994</v>
       </c>
       <c r="E2">
-        <v>1.020479461550701</v>
+        <v>0.9883399400122186</v>
       </c>
       <c r="F2">
-        <v>1.027679297654225</v>
+        <v>0.9965788220842966</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051392794103018</v>
+        <v>1.03697294127952</v>
       </c>
       <c r="J2">
-        <v>1.028515484976171</v>
+        <v>1.001981745144469</v>
       </c>
       <c r="K2">
-        <v>1.026095076305612</v>
+        <v>1.009714060941812</v>
       </c>
       <c r="L2">
-        <v>1.031660671449212</v>
+        <v>0.9999641441858461</v>
       </c>
       <c r="M2">
-        <v>1.038766027556054</v>
+        <v>1.00808602602198</v>
       </c>
       <c r="N2">
-        <v>1.029976094937219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.004323696064394</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.014971470230224</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.017938217677838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011546710757508</v>
+        <v>0.9867516426261677</v>
       </c>
       <c r="D3">
-        <v>1.019220370075335</v>
+        <v>1.004623398551137</v>
       </c>
       <c r="E3">
-        <v>1.024724035301814</v>
+        <v>0.9945952614059089</v>
       </c>
       <c r="F3">
-        <v>1.03237550258492</v>
+        <v>1.004576226156411</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052835009426806</v>
+        <v>1.040091402963464</v>
       </c>
       <c r="J3">
-        <v>1.031727474710837</v>
+        <v>1.007610104580272</v>
       </c>
       <c r="K3">
-        <v>1.0296130902174</v>
+        <v>1.01519746196534</v>
       </c>
       <c r="L3">
-        <v>1.035050046673085</v>
+        <v>1.005297767188138</v>
       </c>
       <c r="M3">
-        <v>1.04261023624069</v>
+        <v>1.015150886270616</v>
       </c>
       <c r="N3">
-        <v>1.033192646065722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.006235360990612</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.020563017402242</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.021812952976431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014720640489401</v>
+        <v>0.9914488515403174</v>
       </c>
       <c r="D4">
-        <v>1.021996319533248</v>
+        <v>1.008565878156361</v>
       </c>
       <c r="E4">
-        <v>1.027414353006352</v>
+        <v>0.9984701879780448</v>
       </c>
       <c r="F4">
-        <v>1.035351294791305</v>
+        <v>1.009449828390982</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053731316506086</v>
+        <v>1.041922168180923</v>
       </c>
       <c r="J4">
-        <v>1.033755142053446</v>
+        <v>1.011073855109265</v>
       </c>
       <c r="K4">
-        <v>1.031836323392936</v>
+        <v>1.018562008315059</v>
       </c>
       <c r="L4">
-        <v>1.037192797506824</v>
+        <v>1.008587111617216</v>
       </c>
       <c r="M4">
-        <v>1.04504099095502</v>
+        <v>1.019435524678437</v>
       </c>
       <c r="N4">
-        <v>1.035223192928534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.00741134879143</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.023954110191993</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.024193017507989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016038084544213</v>
+        <v>0.9933831208714148</v>
       </c>
       <c r="D5">
-        <v>1.023149656055567</v>
+        <v>1.010188337323849</v>
       </c>
       <c r="E5">
-        <v>1.028532403972605</v>
+        <v>1.000067717324928</v>
       </c>
       <c r="F5">
-        <v>1.036587804831311</v>
+        <v>1.011438462983571</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054099502166072</v>
+        <v>1.042651413452854</v>
       </c>
       <c r="J5">
-        <v>1.034595844807283</v>
+        <v>1.012497604381439</v>
       </c>
       <c r="K5">
-        <v>1.032758685214515</v>
+        <v>1.019943777824461</v>
       </c>
       <c r="L5">
-        <v>1.038081962027863</v>
+        <v>1.00994074544257</v>
       </c>
       <c r="M5">
-        <v>1.046049777739994</v>
+        <v>1.02117958029213</v>
       </c>
       <c r="N5">
-        <v>1.036065089576711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.007895610359034</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.025334444539199</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.025177409257502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016258318555915</v>
+        <v>0.9937133108959694</v>
       </c>
       <c r="D6">
-        <v>1.02334251929432</v>
+        <v>1.010467388269396</v>
       </c>
       <c r="E6">
-        <v>1.028719383702121</v>
+        <v>1.000341362447996</v>
       </c>
       <c r="F6">
-        <v>1.036794585009666</v>
+        <v>1.011775048801553</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054160822524439</v>
+        <v>1.042772256087712</v>
       </c>
       <c r="J6">
-        <v>1.034736326230811</v>
+        <v>1.012742334422474</v>
       </c>
       <c r="K6">
-        <v>1.03291284575478</v>
+        <v>1.020182445265774</v>
       </c>
       <c r="L6">
-        <v>1.03823058535673</v>
+        <v>1.010173483669524</v>
       </c>
       <c r="M6">
-        <v>1.046218402408778</v>
+        <v>1.021475199026576</v>
       </c>
       <c r="N6">
-        <v>1.036205770499974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.007980055890019</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.025568411968787</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.025355094509081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014738309684103</v>
+        <v>0.9914967369239835</v>
       </c>
       <c r="D7">
-        <v>1.022011783522003</v>
+        <v>1.008612071781673</v>
       </c>
       <c r="E7">
-        <v>1.027429342737826</v>
+        <v>0.9985121124517936</v>
       </c>
       <c r="F7">
-        <v>1.035367873404109</v>
+        <v>1.009493863568281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05373626982563</v>
+        <v>1.041933998022094</v>
       </c>
       <c r="J7">
-        <v>1.033766421123397</v>
+        <v>1.011114315474817</v>
       </c>
       <c r="K7">
-        <v>1.031848695744283</v>
+        <v>1.018604689191467</v>
       </c>
       <c r="L7">
-        <v>1.037204723797783</v>
+        <v>1.008625520683693</v>
       </c>
       <c r="M7">
-        <v>1.045054521289845</v>
+        <v>1.019476077226992</v>
       </c>
       <c r="N7">
-        <v>1.035234488016058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.007428430352228</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.023986205574009</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.024243738725075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008239894236627</v>
+        <v>0.9818010019680337</v>
       </c>
       <c r="D8">
-        <v>1.016332089747032</v>
+        <v>1.000464777763699</v>
       </c>
       <c r="E8">
-        <v>1.021925880852207</v>
+        <v>0.9905185694435105</v>
       </c>
       <c r="F8">
-        <v>1.02927978757217</v>
+        <v>0.9993705609886656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051887970573718</v>
+        <v>1.038070691669598</v>
       </c>
       <c r="J8">
-        <v>1.029611745125121</v>
+        <v>1.003950619964696</v>
       </c>
       <c r="K8">
-        <v>1.027295285244534</v>
+        <v>1.011638457017637</v>
       </c>
       <c r="L8">
-        <v>1.032816822002455</v>
+        <v>1.001828523129664</v>
       </c>
       <c r="M8">
-        <v>1.040077230257461</v>
+        <v>1.010559065181282</v>
       </c>
       <c r="N8">
-        <v>1.031073911901317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.0049969638317</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.016928784683329</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.019322536820491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9961948099298072</v>
+        <v>0.9627700207423319</v>
       </c>
       <c r="D9">
-        <v>1.005844390044441</v>
+        <v>0.9843374047892137</v>
       </c>
       <c r="E9">
-        <v>1.011773810765526</v>
+        <v>0.9748664940861897</v>
       </c>
       <c r="F9">
-        <v>1.018042673367232</v>
+        <v>0.9788079455123549</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048338165855391</v>
+        <v>1.029602625177724</v>
       </c>
       <c r="J9">
-        <v>1.021882658560281</v>
+        <v>0.9897096138952727</v>
       </c>
       <c r="K9">
-        <v>1.018843352451621</v>
+        <v>0.9976898131351428</v>
       </c>
       <c r="L9">
-        <v>1.02467871120748</v>
+        <v>0.9883809465141783</v>
       </c>
       <c r="M9">
-        <v>1.030849649414116</v>
+        <v>0.9922544686917071</v>
       </c>
       <c r="N9">
-        <v>1.023333849147016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.000153474533994</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.002441267157206</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.009455933984408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9877164259550287</v>
+        <v>0.9483531393620143</v>
       </c>
       <c r="D10">
-        <v>0.9984925374395337</v>
+        <v>0.9719975869064086</v>
       </c>
       <c r="E10">
-        <v>1.004664624623472</v>
+        <v>0.9630497770124631</v>
       </c>
       <c r="F10">
-        <v>1.010168606028954</v>
+        <v>0.9625939946428669</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045759296349809</v>
+        <v>1.022405160408523</v>
       </c>
       <c r="J10">
-        <v>1.016426022203508</v>
+        <v>0.9787770830836297</v>
       </c>
       <c r="K10">
-        <v>1.012889063034762</v>
+        <v>0.9868915343699944</v>
       </c>
       <c r="L10">
-        <v>1.018950165502971</v>
+        <v>0.9781198426074669</v>
       </c>
       <c r="M10">
-        <v>1.024356658642362</v>
+        <v>0.9776731465690909</v>
       </c>
       <c r="N10">
-        <v>1.017869463740732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9964524484788514</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.9909549521929736</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.001837694063442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9839268150976738</v>
+        <v>0.9417947741728964</v>
       </c>
       <c r="D11">
-        <v>0.9952144449650409</v>
+        <v>0.9663220616260454</v>
       </c>
       <c r="E11">
-        <v>1.001496603765105</v>
+        <v>0.9577661097289333</v>
       </c>
       <c r="F11">
-        <v>1.006658397193334</v>
+        <v>0.9551000023700309</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044588456994089</v>
+        <v>1.018811926720158</v>
       </c>
       <c r="J11">
-        <v>1.013983889157685</v>
+        <v>0.9738067651753214</v>
       </c>
       <c r="K11">
-        <v>1.010227177682305</v>
+        <v>0.9819083240174232</v>
       </c>
       <c r="L11">
-        <v>1.016390351413381</v>
+        <v>0.9735310046961052</v>
       </c>
       <c r="M11">
-        <v>1.021455828891512</v>
+        <v>0.9709214272428419</v>
       </c>
       <c r="N11">
-        <v>1.015423862585867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9949265783446577</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.9860756797435859</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>0.9983484603401378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9825002708198891</v>
+        <v>0.9392032740070053</v>
       </c>
       <c r="D12">
-        <v>0.9939817275428416</v>
+        <v>0.9640306308638122</v>
       </c>
       <c r="E12">
-        <v>1.000305570143598</v>
+        <v>0.9557060072896596</v>
       </c>
       <c r="F12">
-        <v>1.005338502592332</v>
+        <v>0.9521156564887059</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044145062068128</v>
+        <v>1.017370699591155</v>
       </c>
       <c r="J12">
-        <v>1.013064170433324</v>
+        <v>0.9718237558945455</v>
       </c>
       <c r="K12">
-        <v>1.009225143628652</v>
+        <v>0.9798809891939937</v>
       </c>
       <c r="L12">
-        <v>1.015426918252412</v>
+        <v>0.9717340270175425</v>
       </c>
       <c r="M12">
-        <v>1.020364135059214</v>
+        <v>0.9682215742250796</v>
       </c>
       <c r="N12">
-        <v>1.014502837755424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.994379239225656</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.9842860811541184</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>0.9969149235757695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9828071443711424</v>
+        <v>0.9397179974822141</v>
       </c>
       <c r="D13">
-        <v>0.9942468469640808</v>
+        <v>0.9644164076850394</v>
       </c>
       <c r="E13">
-        <v>1.00056171130942</v>
+        <v>0.9561752284027479</v>
       </c>
       <c r="F13">
-        <v>1.005622366187965</v>
+        <v>0.9527539860983537</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044240562117944</v>
+        <v>1.017683456968048</v>
       </c>
       <c r="J13">
-        <v>1.013262034945053</v>
+        <v>0.972209500013539</v>
       </c>
       <c r="K13">
-        <v>1.009440697084693</v>
+        <v>0.9802121808214947</v>
       </c>
       <c r="L13">
-        <v>1.0156341599541</v>
+        <v>0.9721460768777475</v>
       </c>
       <c r="M13">
-        <v>1.02059896266947</v>
+        <v>0.9687986965769455</v>
       </c>
       <c r="N13">
-        <v>1.014700983257455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9946191338421503</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>0.9850334260267911</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>0.9971464847279985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9838092891693472</v>
+        <v>0.9414789171189724</v>
       </c>
       <c r="D14">
-        <v>0.9951128611725722</v>
+        <v>0.9658938767286128</v>
       </c>
       <c r="E14">
-        <v>1.001398448992132</v>
+        <v>0.9576430367095828</v>
       </c>
       <c r="F14">
-        <v>1.006549627220586</v>
+        <v>0.9548330025584419</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044551981237287</v>
+        <v>1.018691573678697</v>
       </c>
       <c r="J14">
-        <v>1.013908126099952</v>
+        <v>0.973546001320997</v>
       </c>
       <c r="K14">
-        <v>1.010144624775194</v>
+        <v>0.9815068368041948</v>
       </c>
       <c r="L14">
-        <v>1.016310975022718</v>
+        <v>0.9734286183008571</v>
       </c>
       <c r="M14">
-        <v>1.021365883454848</v>
+        <v>0.9706782772890675</v>
       </c>
       <c r="N14">
-        <v>1.015347991935901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9951403744821304</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>0.9866999489550862</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>0.9980634436709309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9844242021829931</v>
+        <v>0.9425894871173661</v>
       </c>
       <c r="D15">
-        <v>0.9956444148819269</v>
+        <v>0.9668458034034102</v>
       </c>
       <c r="E15">
-        <v>1.001912071751464</v>
+        <v>0.9585573650440623</v>
       </c>
       <c r="F15">
-        <v>1.007118788247434</v>
+        <v>0.9561327266151972</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044742720339987</v>
+        <v>1.01930443509314</v>
       </c>
       <c r="J15">
-        <v>1.01430451316226</v>
+        <v>0.9743953068224567</v>
       </c>
       <c r="K15">
-        <v>1.010576553944544</v>
+        <v>0.9823456857862274</v>
       </c>
       <c r="L15">
-        <v>1.016726291436414</v>
+        <v>0.9742290105765371</v>
       </c>
       <c r="M15">
-        <v>1.021836503203602</v>
+        <v>0.971855363610589</v>
       </c>
       <c r="N15">
-        <v>1.015744941913304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.995442529689336</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>0.9876692289439972</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>0.9986627720671655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9879653412553173</v>
+        <v>0.9490220100381973</v>
       </c>
       <c r="D16">
-        <v>0.9987080265965085</v>
+        <v>0.9724215307159447</v>
       </c>
       <c r="E16">
-        <v>1.004872917922637</v>
+        <v>0.9638126551500316</v>
       </c>
       <c r="F16">
-        <v>1.010399368821026</v>
+        <v>0.9635918409189813</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045835830159417</v>
+        <v>1.022702522022939</v>
       </c>
       <c r="J16">
-        <v>1.016586369675085</v>
+        <v>0.9793312989733188</v>
       </c>
       <c r="K16">
-        <v>1.013063900803653</v>
+        <v>0.9872690364362854</v>
       </c>
       <c r="L16">
-        <v>1.019118323353429</v>
+        <v>0.9788288324818539</v>
       </c>
       <c r="M16">
-        <v>1.024547230325949</v>
+        <v>0.9786123967096886</v>
       </c>
       <c r="N16">
-        <v>1.01803003892411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9970871870975304</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>0.9929695228671983</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.002147367699419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9901541363956868</v>
+        <v>0.9529428438817301</v>
       </c>
       <c r="D17">
-        <v>1.000603810434816</v>
+        <v>0.9758354177050659</v>
       </c>
       <c r="E17">
-        <v>1.006705609518216</v>
+        <v>0.9670031718837672</v>
       </c>
       <c r="F17">
-        <v>1.012429606933703</v>
+        <v>0.9680653877671853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046506764344801</v>
+        <v>1.024684031110328</v>
       </c>
       <c r="J17">
-        <v>1.01799600633423</v>
+        <v>0.9823377003316304</v>
       </c>
       <c r="K17">
-        <v>1.014601260943512</v>
+        <v>0.9902808342673285</v>
       </c>
       <c r="L17">
-        <v>1.020597077847606</v>
+        <v>0.9816155951745031</v>
       </c>
       <c r="M17">
-        <v>1.026223154342715</v>
+        <v>0.9826575149643022</v>
       </c>
       <c r="N17">
-        <v>1.019441677428999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9980502893626083</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>0.996033030951798</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.004279675365711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9914194788778032</v>
+        <v>0.9551758447815798</v>
       </c>
       <c r="D18">
-        <v>1.00170051438092</v>
+        <v>0.9777998427395828</v>
       </c>
       <c r="E18">
-        <v>1.007765991370302</v>
+        <v>0.9687947972847089</v>
       </c>
       <c r="F18">
-        <v>1.013604161617754</v>
+        <v>0.9705653827184458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046892907505802</v>
+        <v>1.025786193143229</v>
       </c>
       <c r="J18">
-        <v>1.018810613647974</v>
+        <v>0.9840461662138709</v>
       </c>
       <c r="K18">
-        <v>1.015489959149746</v>
+        <v>0.9920131082881783</v>
       </c>
       <c r="L18">
-        <v>1.021452006746985</v>
+        <v>0.9831748275293744</v>
       </c>
       <c r="M18">
-        <v>1.027192129830083</v>
+        <v>0.9849123044964515</v>
       </c>
       <c r="N18">
-        <v>1.020257441578565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9985385805459356</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>0.9975683002968475</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.005492393304101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9918490363458122</v>
+        <v>0.9558775437004124</v>
       </c>
       <c r="D19">
-        <v>1.002072947920699</v>
+        <v>0.9784446781307642</v>
       </c>
       <c r="E19">
-        <v>1.008126119800241</v>
+        <v>0.9693180970487022</v>
       </c>
       <c r="F19">
-        <v>1.014003044558808</v>
+        <v>0.971279313821833</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047023700398545</v>
+        <v>1.026137544196672</v>
       </c>
       <c r="J19">
-        <v>1.019087102598289</v>
+        <v>0.9845726187132214</v>
       </c>
       <c r="K19">
-        <v>1.015791643386704</v>
+        <v>0.9925795500429984</v>
       </c>
       <c r="L19">
-        <v>1.021742245717135</v>
+        <v>0.9836208071081839</v>
       </c>
       <c r="M19">
-        <v>1.02752109565743</v>
+        <v>0.9855456101122305</v>
       </c>
       <c r="N19">
-        <v>1.020534323174904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9986054449148853</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>0.997728981569652</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.005899584022169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9899204806543338</v>
+        <v>0.9522745961576328</v>
       </c>
       <c r="D20">
-        <v>1.000401355418079</v>
+        <v>0.9753796950292658</v>
       </c>
       <c r="E20">
-        <v>1.006509873871956</v>
+        <v>0.966270259808051</v>
       </c>
       <c r="F20">
-        <v>1.012212786041892</v>
+        <v>0.9670428715934554</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046435319932136</v>
+        <v>1.024402604131428</v>
       </c>
       <c r="J20">
-        <v>1.017845557508431</v>
+        <v>0.9817778465892668</v>
       </c>
       <c r="K20">
-        <v>1.014437151144188</v>
+        <v>0.9898697330775751</v>
       </c>
       <c r="L20">
-        <v>1.020439212756941</v>
+        <v>0.9809333201449105</v>
       </c>
       <c r="M20">
-        <v>1.026044234649427</v>
+        <v>0.9816910915120767</v>
       </c>
       <c r="N20">
-        <v>1.019291014948611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9974800248595248</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.9941237480136209</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.003987597334175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9835147141144212</v>
+        <v>0.9407421864383169</v>
       </c>
       <c r="D21">
-        <v>0.994858265338151</v>
+        <v>0.9654423488034405</v>
       </c>
       <c r="E21">
-        <v>1.001152451922741</v>
+        <v>0.9568093935588872</v>
       </c>
       <c r="F21">
-        <v>1.006277022681723</v>
+        <v>0.9537406409742586</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04446051350818</v>
+        <v>1.018327287586583</v>
       </c>
       <c r="J21">
-        <v>1.013718221938323</v>
+        <v>0.9729448061370752</v>
       </c>
       <c r="K21">
-        <v>1.009937708640206</v>
+        <v>0.9811093984085782</v>
       </c>
       <c r="L21">
-        <v>1.016112023593736</v>
+        <v>0.9726579805718124</v>
       </c>
       <c r="M21">
-        <v>1.021140442842317</v>
+        <v>0.969654808960576</v>
       </c>
       <c r="N21">
-        <v>1.015157818088581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9944590814534827</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.9845538757442459</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>0.9977966373741007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.979377097555311</v>
+        <v>0.932804605891784</v>
       </c>
       <c r="D22">
-        <v>0.9912853324040135</v>
+        <v>0.9585437226966463</v>
       </c>
       <c r="E22">
-        <v>0.9977009014833639</v>
+        <v>0.950303817252022</v>
       </c>
       <c r="F22">
-        <v>1.002451620825243</v>
+        <v>0.9443518102679798</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043169539230758</v>
+        <v>1.013883304527204</v>
       </c>
       <c r="J22">
-        <v>1.011049916279254</v>
+        <v>0.9668061165394187</v>
       </c>
       <c r="K22">
-        <v>1.007031428188919</v>
+        <v>0.9749837356236796</v>
       </c>
       <c r="L22">
-        <v>1.013318041967429</v>
+        <v>0.9669285175431992</v>
       </c>
       <c r="M22">
-        <v>1.017974666576773</v>
+        <v>0.9611125980826526</v>
       </c>
       <c r="N22">
-        <v>1.012485723129417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9923643668562931</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9777926654993813</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>0.9934508991252256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9815813584582795</v>
+        <v>0.9370632232994471</v>
       </c>
       <c r="D23">
-        <v>0.9931880375916102</v>
+        <v>0.962246296499058</v>
       </c>
       <c r="E23">
-        <v>0.9995388020760101</v>
+        <v>0.9537908537223391</v>
       </c>
       <c r="F23">
-        <v>1.004488714095553</v>
+        <v>0.949425951442159</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043858711478767</v>
+        <v>1.016306959934907</v>
       </c>
       <c r="J23">
-        <v>1.012471622812664</v>
+        <v>0.970101430728852</v>
       </c>
       <c r="K23">
-        <v>1.008579687643255</v>
+        <v>0.978273526476079</v>
       </c>
       <c r="L23">
-        <v>1.014806377449619</v>
+        <v>0.9700013080427398</v>
       </c>
       <c r="M23">
-        <v>1.019661006907186</v>
+        <v>0.9657326908054595</v>
       </c>
       <c r="N23">
-        <v>1.013909448649176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9934846732151908</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9814495059660574</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>0.9957669895220232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9900260946021175</v>
+        <v>0.9523885115811052</v>
       </c>
       <c r="D24">
-        <v>1.000492864105996</v>
+        <v>0.9754697812127603</v>
       </c>
       <c r="E24">
-        <v>1.006598344890298</v>
+        <v>0.966351410527259</v>
       </c>
       <c r="F24">
-        <v>1.012310787820464</v>
+        <v>0.9671715007830773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046467618634672</v>
+        <v>1.024485142820676</v>
       </c>
       <c r="J24">
-        <v>1.017913562324006</v>
+        <v>0.9818510629217312</v>
       </c>
       <c r="K24">
-        <v>1.014511330023136</v>
+        <v>0.9899418188870506</v>
       </c>
       <c r="L24">
-        <v>1.020510568643093</v>
+        <v>0.9809963750302703</v>
       </c>
       <c r="M24">
-        <v>1.02612510716148</v>
+        <v>0.981800737882499</v>
       </c>
       <c r="N24">
-        <v>1.019359116338824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9974850641003957</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.9941673156682914</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.004009939957767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9993839633708442</v>
+        <v>0.9679966157604443</v>
       </c>
       <c r="D25">
-        <v>1.008616237762375</v>
+        <v>0.9887927037003665</v>
       </c>
       <c r="E25">
-        <v>1.014455716721804</v>
+        <v>0.9791646256748333</v>
       </c>
       <c r="F25">
-        <v>1.021012046596808</v>
+        <v>0.9845374584099118</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049292098730273</v>
+        <v>1.032029286806221</v>
       </c>
       <c r="J25">
-        <v>1.023932077406415</v>
+        <v>0.9936511994116001</v>
       </c>
       <c r="K25">
-        <v>1.021082254160858</v>
+        <v>1.001567526165778</v>
       </c>
       <c r="L25">
-        <v>1.026833695648513</v>
+        <v>0.9920952309446708</v>
       </c>
       <c r="M25">
-        <v>1.033292704830762</v>
+        <v>0.9973806486836631</v>
       </c>
       <c r="N25">
-        <v>1.025386178402983</v>
+        <v>1.001500577115242</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.006498511877238</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.01222754418736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9791593085042382</v>
+        <v>0.9826417391728933</v>
       </c>
       <c r="D2">
-        <v>0.9982300121753994</v>
+        <v>1.00171613105567</v>
       </c>
       <c r="E2">
-        <v>0.9883399400122186</v>
+        <v>0.9913910396840947</v>
       </c>
       <c r="F2">
-        <v>0.9965788220842966</v>
+        <v>0.9991385580432819</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.03697294127952</v>
+        <v>1.037273256242272</v>
       </c>
       <c r="J2">
-        <v>1.001981745144469</v>
+        <v>1.005354325148195</v>
       </c>
       <c r="K2">
-        <v>1.009714060941812</v>
+        <v>1.013151609112213</v>
       </c>
       <c r="L2">
-        <v>0.9999641441858461</v>
+        <v>1.002971628404214</v>
       </c>
       <c r="M2">
-        <v>1.00808602602198</v>
+        <v>1.010609907181016</v>
       </c>
       <c r="N2">
-        <v>1.004323696064394</v>
+        <v>1.008483866803749</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.014971470230224</v>
+        <v>1.016969024090665</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.017938217677838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.020378005403014</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.015603662138554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9867516426261677</v>
+        <v>0.9893712077468599</v>
       </c>
       <c r="D3">
-        <v>1.004623398551137</v>
+        <v>1.007163958194745</v>
       </c>
       <c r="E3">
-        <v>0.9945952614059089</v>
+        <v>0.9968965977886238</v>
       </c>
       <c r="F3">
-        <v>1.004576226156411</v>
+        <v>1.006443473823126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.040091402963464</v>
+        <v>1.040304128482637</v>
       </c>
       <c r="J3">
-        <v>1.007610104580272</v>
+        <v>1.010155878668405</v>
       </c>
       <c r="K3">
-        <v>1.01519746196534</v>
+        <v>1.017705988175772</v>
       </c>
       <c r="L3">
-        <v>1.005297767188138</v>
+        <v>1.007569341839684</v>
       </c>
       <c r="M3">
-        <v>1.015150886270616</v>
+        <v>1.016994567760018</v>
       </c>
       <c r="N3">
-        <v>1.006235360990612</v>
+        <v>1.009775326940693</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.020563017402242</v>
+        <v>1.022022207974261</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.021812952976431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.023595480526426</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.016711615895045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9914488515403174</v>
+        <v>0.9935495353056257</v>
       </c>
       <c r="D4">
-        <v>1.008565878156361</v>
+        <v>1.010534289513953</v>
       </c>
       <c r="E4">
-        <v>0.9984701879780448</v>
+        <v>1.000319766919015</v>
       </c>
       <c r="F4">
-        <v>1.009449828390982</v>
+        <v>1.010903098423287</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041922168180923</v>
+        <v>1.042085014415598</v>
       </c>
       <c r="J4">
-        <v>1.011073855109265</v>
+        <v>1.013119696394062</v>
       </c>
       <c r="K4">
-        <v>1.018562008315059</v>
+        <v>1.020507216029094</v>
       </c>
       <c r="L4">
-        <v>1.008587111617216</v>
+        <v>1.010414334167318</v>
       </c>
       <c r="M4">
-        <v>1.019435524678437</v>
+        <v>1.020871689858669</v>
       </c>
       <c r="N4">
-        <v>1.00741134879143</v>
+        <v>1.010572374807549</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.023954110191993</v>
+        <v>1.025090764588794</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.024193017507989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.025577263394104</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017388867339276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9933831208714148</v>
+        <v>0.9952730140865035</v>
       </c>
       <c r="D5">
-        <v>1.010188337323849</v>
+        <v>1.011923726949005</v>
       </c>
       <c r="E5">
-        <v>1.000067717324928</v>
+        <v>1.001733515728255</v>
       </c>
       <c r="F5">
-        <v>1.011438462983571</v>
+        <v>1.01272412353775</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042651413452854</v>
+        <v>1.042794553360847</v>
       </c>
       <c r="J5">
-        <v>1.012497604381439</v>
+        <v>1.014339746826849</v>
       </c>
       <c r="K5">
-        <v>1.019943777824461</v>
+        <v>1.021659296158425</v>
       </c>
       <c r="L5">
-        <v>1.00994074544257</v>
+        <v>1.011586987464591</v>
       </c>
       <c r="M5">
-        <v>1.02117958029213</v>
+        <v>1.022450556018813</v>
       </c>
       <c r="N5">
-        <v>1.007895610359034</v>
+        <v>1.010901119846663</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.025334444539199</v>
+        <v>1.026340357632915</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.025177409257502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.02639993068999</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017667039856625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9937133108959694</v>
+        <v>0.9955670323296043</v>
       </c>
       <c r="D6">
-        <v>1.010467388269396</v>
+        <v>1.012162968387188</v>
       </c>
       <c r="E6">
-        <v>1.000341362447996</v>
+        <v>1.001975521697243</v>
       </c>
       <c r="F6">
-        <v>1.011775048801553</v>
+        <v>1.013032105155859</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042772256087712</v>
+        <v>1.042912063889629</v>
       </c>
       <c r="J6">
-        <v>1.012742334422474</v>
+        <v>1.014549478782014</v>
       </c>
       <c r="K6">
-        <v>1.020182445265774</v>
+        <v>1.021858705630403</v>
       </c>
       <c r="L6">
-        <v>1.010173483669524</v>
+        <v>1.01178855286296</v>
       </c>
       <c r="M6">
-        <v>1.021475199026576</v>
+        <v>1.022717970206798</v>
       </c>
       <c r="N6">
-        <v>1.007980055890019</v>
+        <v>1.010958447486819</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.025568411968787</v>
+        <v>1.026552002267761</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.025355094509081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.026550714426352</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.017715898749757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9914967369239835</v>
+        <v>0.9936038878166776</v>
       </c>
       <c r="D7">
-        <v>1.008612071781673</v>
+        <v>1.01058393359124</v>
       </c>
       <c r="E7">
-        <v>0.9985121124517936</v>
+        <v>1.000367726373086</v>
       </c>
       <c r="F7">
-        <v>1.009493863568281</v>
+        <v>1.010950157183385</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041933998022094</v>
+        <v>1.04209716802618</v>
       </c>
       <c r="J7">
-        <v>1.011114315474817</v>
+        <v>1.013166482914369</v>
       </c>
       <c r="K7">
-        <v>1.018604689191467</v>
+        <v>1.02055331720806</v>
       </c>
       <c r="L7">
-        <v>1.008625520683693</v>
+        <v>1.01045871531283</v>
       </c>
       <c r="M7">
-        <v>1.019476077226992</v>
+        <v>1.020915238061405</v>
       </c>
       <c r="N7">
-        <v>1.007428430352228</v>
+        <v>1.010614096270524</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.023986205574009</v>
+        <v>1.025125230828595</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.024243738725075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.025632378887159</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.017403017746703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9818010019680337</v>
+        <v>0.9850178439978129</v>
       </c>
       <c r="D8">
-        <v>1.000464777763699</v>
+        <v>1.003648597205315</v>
       </c>
       <c r="E8">
-        <v>0.9905185694435105</v>
+        <v>0.993341019537978</v>
       </c>
       <c r="F8">
-        <v>0.9993705609886656</v>
+        <v>1.001709280485323</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.038070691669598</v>
+        <v>1.03834220916929</v>
       </c>
       <c r="J8">
-        <v>1.003950619964696</v>
+        <v>1.007069756688099</v>
       </c>
       <c r="K8">
-        <v>1.011638457017637</v>
+        <v>1.014779371708274</v>
       </c>
       <c r="L8">
-        <v>1.001828523129664</v>
+        <v>1.004611952920721</v>
       </c>
       <c r="M8">
-        <v>1.010559065181282</v>
+        <v>1.012866148155265</v>
       </c>
       <c r="N8">
-        <v>1.0049969638317</v>
+        <v>1.009030357428091</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.016928784683329</v>
+        <v>1.018754746031392</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.019322536820491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.021554774101503</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.016006214868873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9627700207423319</v>
+        <v>0.9682739254844484</v>
       </c>
       <c r="D9">
-        <v>0.9843374047892137</v>
+        <v>0.9899975999635604</v>
       </c>
       <c r="E9">
-        <v>0.9748664940861897</v>
+        <v>0.9796695957934863</v>
       </c>
       <c r="F9">
-        <v>0.9788079455123549</v>
+        <v>0.9830065584529264</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.029602625177724</v>
+        <v>1.030133923883441</v>
       </c>
       <c r="J9">
-        <v>0.9897096138952727</v>
+        <v>0.9949989975539585</v>
       </c>
       <c r="K9">
-        <v>0.9976898131351428</v>
+        <v>1.003255070865274</v>
       </c>
       <c r="L9">
-        <v>0.9883809465141783</v>
+        <v>0.9931013628650999</v>
       </c>
       <c r="M9">
-        <v>0.9922544686917071</v>
+        <v>0.9963814937506326</v>
       </c>
       <c r="N9">
-        <v>1.000153474533994</v>
+        <v>1.005791157302556</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.002441267157206</v>
+        <v>1.005707707497779</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.009455933984408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.013402365713627</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.013174362073081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9483531393620143</v>
+        <v>0.9557998894827332</v>
       </c>
       <c r="D10">
-        <v>0.9719975869064086</v>
+        <v>0.9797133436431715</v>
       </c>
       <c r="E10">
-        <v>0.9630497770124631</v>
+        <v>0.9695264479150806</v>
       </c>
       <c r="F10">
-        <v>0.9625939946428669</v>
+        <v>0.9684122128072674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.022405160408523</v>
+        <v>1.023205137277032</v>
       </c>
       <c r="J10">
-        <v>0.9787770830836297</v>
+        <v>0.9858839688683658</v>
       </c>
       <c r="K10">
-        <v>0.9868915343699944</v>
+        <v>0.9944588017533893</v>
       </c>
       <c r="L10">
-        <v>0.9781198426074669</v>
+        <v>0.9844686080238448</v>
       </c>
       <c r="M10">
-        <v>0.9776731465690909</v>
+        <v>0.9833762176167696</v>
       </c>
       <c r="N10">
-        <v>0.9964524484788514</v>
+        <v>1.003472774703428</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.9909549521929736</v>
+        <v>0.9954685592719833</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.001837694063442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.007201589304873</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.010998261016975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9417947741728964</v>
+        <v>0.9501931163700521</v>
       </c>
       <c r="D11">
-        <v>0.9663220616260454</v>
+        <v>0.9750400379115197</v>
       </c>
       <c r="E11">
-        <v>0.9577661097289333</v>
+        <v>0.9650442116747536</v>
       </c>
       <c r="F11">
-        <v>0.9551000023700309</v>
+        <v>0.9617389935791972</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.018811926720158</v>
+        <v>1.019767319583589</v>
       </c>
       <c r="J11">
-        <v>0.9738067651753214</v>
+        <v>0.9817954482425039</v>
       </c>
       <c r="K11">
-        <v>0.9819083240174232</v>
+        <v>0.9904485294516944</v>
       </c>
       <c r="L11">
-        <v>0.9735310046961052</v>
+        <v>0.9806568875305898</v>
       </c>
       <c r="M11">
-        <v>0.9709214272428419</v>
+        <v>0.9774204194931142</v>
       </c>
       <c r="N11">
-        <v>0.9949265783446577</v>
+        <v>1.002711586287132</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.9860756797435859</v>
+        <v>0.9912163271941818</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>0.9983484603401378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.004403492615913</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.010069147727154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9392032740070053</v>
+        <v>0.9479683266131066</v>
       </c>
       <c r="D12">
-        <v>0.9640306308638122</v>
+        <v>0.9731437150337473</v>
       </c>
       <c r="E12">
-        <v>0.9557060072896596</v>
+        <v>0.9632832136945395</v>
       </c>
       <c r="F12">
-        <v>0.9521156564887059</v>
+        <v>0.9590851322669516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.017370699591155</v>
+        <v>1.018392910011069</v>
       </c>
       <c r="J12">
-        <v>0.9718237558945455</v>
+        <v>0.9801505236850144</v>
       </c>
       <c r="K12">
-        <v>0.9798809891939937</v>
+        <v>0.9888041830276418</v>
       </c>
       <c r="L12">
-        <v>0.9717340270175425</v>
+        <v>0.9791493570807435</v>
       </c>
       <c r="M12">
-        <v>0.9682215742250796</v>
+        <v>0.9750405429244811</v>
       </c>
       <c r="N12">
-        <v>0.994379239225656</v>
+        <v>1.00245001810749</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.9842860811541184</v>
+        <v>0.9896777861390046</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>0.9969149235757695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.003240815897954</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.009705781249536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9397179974822141</v>
+        <v>0.9483502294644075</v>
       </c>
       <c r="D13">
-        <v>0.9644164076850394</v>
+        <v>0.9734141947526496</v>
       </c>
       <c r="E13">
-        <v>0.9561752284027479</v>
+        <v>0.9636224704648839</v>
       </c>
       <c r="F13">
-        <v>0.9527539860983537</v>
+        <v>0.9596279663049475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.017683456968048</v>
+        <v>1.018687473638508</v>
       </c>
       <c r="J13">
-        <v>0.972209500013539</v>
+        <v>0.980412283069707</v>
       </c>
       <c r="K13">
-        <v>0.9802121808214947</v>
+        <v>0.9890232835632349</v>
       </c>
       <c r="L13">
-        <v>0.9721460768777475</v>
+        <v>0.9794349375280321</v>
       </c>
       <c r="M13">
-        <v>0.9687986965769455</v>
+        <v>0.9755249800765737</v>
       </c>
       <c r="N13">
-        <v>0.9946191338421503</v>
+        <v>1.002558724328024</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>0.9850334260267911</v>
+        <v>0.9903503767122673</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>0.9971464847279985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.00339288111299</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.00979562537063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9414789171189724</v>
+        <v>0.9497969577253529</v>
       </c>
       <c r="D14">
-        <v>0.9658938767286128</v>
+        <v>0.9745842602478269</v>
       </c>
       <c r="E14">
-        <v>0.9576430367095828</v>
+        <v>0.9648102227096474</v>
       </c>
       <c r="F14">
-        <v>0.9548330025584419</v>
+        <v>0.9614513663720013</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.018691573678697</v>
+        <v>1.019645500067114</v>
       </c>
       <c r="J14">
-        <v>0.973546001320997</v>
+        <v>0.981457269651407</v>
       </c>
       <c r="K14">
-        <v>0.9815068368041948</v>
+        <v>0.990019564187065</v>
       </c>
       <c r="L14">
-        <v>0.9734286183008571</v>
+        <v>0.9804456322069475</v>
       </c>
       <c r="M14">
-        <v>0.9706782772890675</v>
+        <v>0.9771567844722888</v>
       </c>
       <c r="N14">
-        <v>0.9951403744821304</v>
+        <v>1.002803429194044</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>0.9866999489550862</v>
+        <v>0.9918203042794508</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>0.9980634436709309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.004098959832971</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.010063472053364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9425894871173661</v>
+        <v>0.9507237602632214</v>
       </c>
       <c r="D15">
-        <v>0.9668458034034102</v>
+        <v>0.9753512283327144</v>
       </c>
       <c r="E15">
-        <v>0.9585573650440623</v>
+        <v>0.9655644354768748</v>
       </c>
       <c r="F15">
-        <v>0.9561327266151972</v>
+        <v>0.9625980253823818</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.01930443509314</v>
+        <v>1.020228937068863</v>
       </c>
       <c r="J15">
-        <v>0.9743953068224567</v>
+        <v>0.9821360360789851</v>
       </c>
       <c r="K15">
-        <v>0.9823456857862274</v>
+        <v>0.9906788427940993</v>
       </c>
       <c r="L15">
-        <v>0.9742290105765371</v>
+        <v>0.9810906176681614</v>
       </c>
       <c r="M15">
-        <v>0.971855363610589</v>
+        <v>0.9781854473865249</v>
       </c>
       <c r="N15">
-        <v>0.995442529689336</v>
+        <v>1.002950103518993</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>0.9876692289439972</v>
+        <v>0.9926721427353493</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>0.9986627720671655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.004571836976876</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.010231421232772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9490220100381973</v>
+        <v>0.9561685260934556</v>
       </c>
       <c r="D16">
-        <v>0.9724215307159447</v>
+        <v>0.9799071577724325</v>
       </c>
       <c r="E16">
-        <v>0.9638126551500316</v>
+        <v>0.9699728487741327</v>
       </c>
       <c r="F16">
-        <v>0.9635918409189813</v>
+        <v>0.969224951875071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.022702522022939</v>
+        <v>1.023474603873558</v>
       </c>
       <c r="J16">
-        <v>0.9793312989733188</v>
+        <v>0.9861532199201005</v>
       </c>
       <c r="K16">
-        <v>0.9872690364362854</v>
+        <v>0.9946111488724257</v>
       </c>
       <c r="L16">
-        <v>0.9788288324818539</v>
+        <v>0.9848679313176394</v>
       </c>
       <c r="M16">
-        <v>0.9786123967096886</v>
+        <v>0.9841346286006759</v>
       </c>
       <c r="N16">
-        <v>0.9970871870975304</v>
+        <v>1.003795350507583</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>0.9929695228671983</v>
+        <v>0.9973341170133732</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.002147367699419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.007355858239338</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.011198938437274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9529428438817301</v>
+        <v>0.9595342849459773</v>
       </c>
       <c r="D17">
-        <v>0.9758354177050659</v>
+        <v>0.9827343876348075</v>
       </c>
       <c r="E17">
-        <v>0.9670031718837672</v>
+        <v>0.9726920889258908</v>
       </c>
       <c r="F17">
-        <v>0.9680653877671853</v>
+        <v>0.973229104833131</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.024684031110328</v>
+        <v>1.025375268732587</v>
       </c>
       <c r="J17">
-        <v>0.9823377003316304</v>
+        <v>0.9886415053139139</v>
       </c>
       <c r="K17">
-        <v>0.9902808342673285</v>
+        <v>0.9970520729707729</v>
       </c>
       <c r="L17">
-        <v>0.9816155951745031</v>
+        <v>0.9871964877576755</v>
       </c>
       <c r="M17">
-        <v>0.9826575149643022</v>
+        <v>0.9877233917038282</v>
       </c>
       <c r="N17">
-        <v>0.9980502893626083</v>
+        <v>1.004331799917964</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>0.996033030951798</v>
+        <v>1.000037373591241</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.004279675365711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.00908468756062</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01178693185039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9551758447815798</v>
+        <v>0.9614855622865142</v>
       </c>
       <c r="D18">
-        <v>0.9777998427395828</v>
+        <v>0.9843875842250701</v>
       </c>
       <c r="E18">
-        <v>0.9687947972847089</v>
+        <v>0.9742517981658281</v>
       </c>
       <c r="F18">
-        <v>0.9705653827184458</v>
+        <v>0.9754829816908654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.025786193143229</v>
+        <v>1.026436093433087</v>
       </c>
       <c r="J18">
-        <v>0.9840461662138709</v>
+        <v>0.9900869362746647</v>
       </c>
       <c r="K18">
-        <v>0.9920131082881783</v>
+        <v>0.9984813622974785</v>
       </c>
       <c r="L18">
-        <v>0.9831748275293744</v>
+        <v>0.9885302903314195</v>
       </c>
       <c r="M18">
-        <v>0.9849123044964515</v>
+        <v>0.9897387699536194</v>
       </c>
       <c r="N18">
-        <v>0.9985385805459356</v>
+        <v>1.004622567257347</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>0.9975683002968475</v>
+        <v>1.001384261205338</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.005492393304101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.010082043963362</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.0121105823645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9558775437004124</v>
+        <v>0.9621383012638831</v>
       </c>
       <c r="D19">
-        <v>0.9784446781307642</v>
+        <v>0.9849606031777244</v>
       </c>
       <c r="E19">
-        <v>0.9693180970487022</v>
+        <v>0.9747465022382098</v>
       </c>
       <c r="F19">
-        <v>0.971279313821833</v>
+        <v>0.9761409135592669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.026137544196672</v>
+        <v>1.026777380769109</v>
       </c>
       <c r="J19">
-        <v>0.9845726187132214</v>
+        <v>0.990568628351519</v>
       </c>
       <c r="K19">
-        <v>0.9925795500429984</v>
+        <v>0.9989781179012864</v>
       </c>
       <c r="L19">
-        <v>0.9836208071081839</v>
+        <v>0.9889488904303918</v>
       </c>
       <c r="M19">
-        <v>0.9855456101122305</v>
+        <v>0.9903177662605266</v>
       </c>
       <c r="N19">
-        <v>0.9986054449148853</v>
+        <v>1.004673084433568</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>0.997728981569652</v>
+        <v>1.001503347831319</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.005899584022169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.010440547894467</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.012193179502065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9522745961576328</v>
+        <v>0.9591358117774353</v>
       </c>
       <c r="D20">
-        <v>0.9753796950292658</v>
+        <v>0.982490977458286</v>
       </c>
       <c r="E20">
-        <v>0.966270259808051</v>
+        <v>0.9722396141335907</v>
       </c>
       <c r="F20">
-        <v>0.9670428715934554</v>
+        <v>0.9723765444462636</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.024402604131428</v>
+        <v>1.025118601080633</v>
       </c>
       <c r="J20">
-        <v>0.9817778465892668</v>
+        <v>0.9883382287811676</v>
       </c>
       <c r="K20">
-        <v>0.9898697330775751</v>
+        <v>0.9968488510897162</v>
       </c>
       <c r="L20">
-        <v>0.9809333201449105</v>
+        <v>0.9867888154475957</v>
       </c>
       <c r="M20">
-        <v>0.9816910915120767</v>
+        <v>0.9869231553981193</v>
       </c>
       <c r="N20">
-        <v>0.9974800248595248</v>
+        <v>1.004033515228592</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.9941237480136209</v>
+        <v>0.9982646242319999</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.003987597334175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.008939477642065</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01159507348037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9407421864383169</v>
+        <v>0.9494407901065455</v>
       </c>
       <c r="D21">
-        <v>0.9654423488034405</v>
+        <v>0.9744277040666631</v>
       </c>
       <c r="E21">
-        <v>0.9568093935588872</v>
+        <v>0.9643744161231287</v>
       </c>
       <c r="F21">
-        <v>0.9537406409742586</v>
+        <v>0.9605998865027302</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.018327287586583</v>
+        <v>1.019320174098245</v>
       </c>
       <c r="J21">
-        <v>0.9729448061370752</v>
+        <v>0.9812157681950794</v>
       </c>
       <c r="K21">
-        <v>0.9811093984085782</v>
+        <v>0.9899103058337012</v>
       </c>
       <c r="L21">
-        <v>0.9726579805718124</v>
+        <v>0.9800636898684966</v>
       </c>
       <c r="M21">
-        <v>0.969654808960576</v>
+        <v>0.9763682337909338</v>
       </c>
       <c r="N21">
-        <v>0.9944590814534827</v>
+        <v>1.002551972908675</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.9845538757442459</v>
+        <v>0.9898675359763083</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>0.9977966373741007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.004037170616493</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.009870436582517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.932804605891784</v>
+        <v>0.9428306039747224</v>
       </c>
       <c r="D22">
-        <v>0.9585437226966463</v>
+        <v>0.9688788970645668</v>
       </c>
       <c r="E22">
-        <v>0.950303817252022</v>
+        <v>0.9590167569278766</v>
       </c>
       <c r="F22">
-        <v>0.9443518102679798</v>
+        <v>0.9523553303586663</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.013883304527204</v>
+        <v>1.015113701294177</v>
       </c>
       <c r="J22">
-        <v>0.9668061165394187</v>
+        <v>0.9763025410792768</v>
       </c>
       <c r="K22">
-        <v>0.9749837356236796</v>
+        <v>0.9850931490759557</v>
       </c>
       <c r="L22">
-        <v>0.9669285175431992</v>
+        <v>0.9754462955273575</v>
       </c>
       <c r="M22">
-        <v>0.9611125980826526</v>
+        <v>0.9689336500955631</v>
       </c>
       <c r="N22">
-        <v>0.9923643668562931</v>
+        <v>1.001504006250819</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9777926654993813</v>
+        <v>0.9839830773097676</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>0.9934508991252256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.000615593128448</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.008667852745971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9370632232994471</v>
+        <v>0.946348416353004</v>
       </c>
       <c r="D23">
-        <v>0.962246296499058</v>
+        <v>0.9718331463206137</v>
       </c>
       <c r="E23">
-        <v>0.9537908537223391</v>
+        <v>0.9618622690504139</v>
       </c>
       <c r="F23">
-        <v>0.949425951442159</v>
+        <v>0.9567900009387761</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.016306959934907</v>
+        <v>1.017401863108261</v>
       </c>
       <c r="J23">
-        <v>0.970101430728852</v>
+        <v>0.9789144499059852</v>
       </c>
       <c r="K23">
-        <v>0.978273526476079</v>
+        <v>0.9876577313861424</v>
       </c>
       <c r="L23">
-        <v>0.9700013080427398</v>
+        <v>0.9778977280956483</v>
       </c>
       <c r="M23">
-        <v>0.9657326908054595</v>
+        <v>0.9729349733921863</v>
       </c>
       <c r="N23">
-        <v>0.9934846732151908</v>
+        <v>1.002016301091206</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9814495059660574</v>
+        <v>0.9871501242910727</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>0.9957669895220232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.002417920366817</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.009304522947271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9523885115811052</v>
+        <v>0.9592428608661703</v>
       </c>
       <c r="D24">
-        <v>0.9754697812127603</v>
+        <v>0.982570462529106</v>
       </c>
       <c r="E24">
-        <v>0.966351410527259</v>
+        <v>0.9723172113830324</v>
       </c>
       <c r="F24">
-        <v>0.9671715007830773</v>
+        <v>0.9724966725179494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.024485142820676</v>
+        <v>1.025199251827311</v>
       </c>
       <c r="J24">
-        <v>0.9818510629217312</v>
+        <v>0.9884054063866597</v>
       </c>
       <c r="K24">
-        <v>0.9899418188870506</v>
+        <v>0.9969107338405264</v>
       </c>
       <c r="L24">
-        <v>0.9809963750302703</v>
+        <v>0.9868485570912413</v>
       </c>
       <c r="M24">
-        <v>0.981800737882499</v>
+        <v>0.9870246286077952</v>
       </c>
       <c r="N24">
-        <v>0.9974850641003957</v>
+        <v>1.004035324471551</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.9941673156682914</v>
+        <v>0.9983019509070723</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.004009939957767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.008952042465977</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.011601180298285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9679966157604443</v>
+        <v>0.9728322416487419</v>
       </c>
       <c r="D25">
-        <v>0.9887927037003665</v>
+        <v>0.9937401540573626</v>
       </c>
       <c r="E25">
-        <v>0.9791646256748333</v>
+        <v>0.9833887852572244</v>
       </c>
       <c r="F25">
-        <v>0.9845374584099118</v>
+        <v>0.9881911827933515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.032029286806221</v>
+        <v>1.032479830607674</v>
       </c>
       <c r="J25">
-        <v>0.9936511994116001</v>
+        <v>0.9983098235467236</v>
       </c>
       <c r="K25">
-        <v>1.001567526165778</v>
+        <v>1.006436429602862</v>
       </c>
       <c r="L25">
-        <v>0.9920952309446708</v>
+        <v>0.9962505611513761</v>
       </c>
       <c r="M25">
-        <v>0.9973806486836631</v>
+        <v>1.000975623905922</v>
       </c>
       <c r="N25">
-        <v>1.001500577115242</v>
+        <v>1.006651849525748</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.006498511877238</v>
+        <v>1.009343830394709</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.01222754418736</v>
+        <v>1.015684239775639</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.013962849629134</v>
       </c>
     </row>
   </sheetData>
